--- a/en/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B10103C_顧客登録要求電文_(JSON).xlsx
+++ b/en/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B10103C_顧客登録要求電文_(JSON).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD4C6D4-2DB6-4926-9F92-63E899BCF6DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E2A43-EE20-4ECD-ADBF-A8390862B635}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="27225" windowHeight="7905" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -40,257 +40,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{FFE474B0-960A-4456-94F6-FB153C846DEE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{FBD96424-48A3-411E-A846-58140B1CC82D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「相手先」は「destination」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{9C969AD2-A810-4390-AFF1-9A9AF499AB8E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{81814D68-E1E5-4146-A659-204FB3C48D15}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「特記事項」は「Note」としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{C796235F-BC22-4ACF-A57B-2D44DC7F3387}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」としてください。
-他のセルやコメントも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC10" authorId="0" shapeId="0" xr:uid="{BBEA3C95-C7F5-4E5A-B32A-CF77C6430FF8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-優先度 高→低 の部分ですが、
-英語での表現が難しいため
-空欄にしてください。]
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{7E69BC5E-A39B-4ECB-87CE-48079970CAF1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Data structureとしてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y16" authorId="0" shapeId="0" xr:uid="{B42FB3B2-D07B-40ED-8ABF-1BAA017AE732}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Data structureとしてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,7 +706,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1133,21 +882,6 @@
       <color indexed="55"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2421,6 +2155,120 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2439,15 +2287,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2484,110 +2323,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2616,15 +2374,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2662,30 +2414,114 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,119 +2533,101 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2820,20 +2638,158 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2844,9 +2800,6 @@
     <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2856,223 +2809,52 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3096,59 +2878,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6166,12 +5900,12 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="32"/>
@@ -6183,29 +5917,29 @@
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -6223,7 +5957,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -6234,7 +5968,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1">
+    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -6254,7 +5988,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -6266,7 +6000,7 @@
       <c r="K25" s="239"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -6275,7 +6009,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6284,7 +6018,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="33"/>
@@ -6292,7 +6026,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -6301,7 +6035,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -6310,7 +6044,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -6319,7 +6053,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="33"/>
@@ -6334,7 +6068,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="33"/>
@@ -6348,7 +6082,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I34" s="33"/>
       <c r="J34" s="35"/>
       <c r="K34" s="33"/>
@@ -6358,509 +6092,509 @@
       <c r="R34" s="55"/>
       <c r="S34" s="55"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P35" s="11"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="55"/>
       <c r="S35" s="55"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P36" s="11"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="55"/>
       <c r="S36" s="53"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="11"/>
       <c r="Q37" s="56"/>
       <c r="R37" s="56"/>
       <c r="S37" s="56"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P38" s="11"/>
       <c r="Q38" s="56"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P39" s="11"/>
       <c r="Q39" s="56"/>
       <c r="R39" s="56"/>
       <c r="S39" s="56"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6884,7 +6618,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="19" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="31" customWidth="1"/>
@@ -6893,162 +6627,162 @@
     <col min="36" max="16384" width="4.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="246" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="247"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="286" t="s">
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="252" t="s">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="287" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="283" t="s">
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="288"/>
+      <c r="W1" s="288"/>
+      <c r="X1" s="288"/>
+      <c r="Y1" s="288"/>
+      <c r="Z1" s="289"/>
+      <c r="AA1" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="285"/>
-      <c r="AC1" s="240" t="str">
+      <c r="AB1" s="242"/>
+      <c r="AC1" s="278" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="241"/>
-      <c r="AE1" s="241"/>
-      <c r="AF1" s="242"/>
-      <c r="AG1" s="243">
+      <c r="AD1" s="279"/>
+      <c r="AE1" s="279"/>
+      <c r="AF1" s="280"/>
+      <c r="AG1" s="281">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="244"/>
-      <c r="AI1" s="245"/>
+      <c r="AH1" s="282"/>
+      <c r="AI1" s="283"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="26"/>
     </row>
-    <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="283" t="s">
+    <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="246" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="291"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="283" t="s">
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="290"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
+      <c r="Y2" s="291"/>
+      <c r="Z2" s="292"/>
+      <c r="AA2" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="285"/>
-      <c r="AC2" s="249" t="str">
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="284" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="250"/>
-      <c r="AE2" s="250"/>
-      <c r="AF2" s="251"/>
-      <c r="AG2" s="243" t="str">
+      <c r="AD2" s="285"/>
+      <c r="AE2" s="285"/>
+      <c r="AF2" s="286"/>
+      <c r="AG2" s="281" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="244"/>
-      <c r="AI2" s="245"/>
+      <c r="AH2" s="282"/>
+      <c r="AI2" s="283"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
-    <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="283" t="s">
+    <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="295" t="s">
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="293"/>
-      <c r="Q3" s="293"/>
-      <c r="R3" s="294"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="283"/>
-      <c r="AB3" s="285"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="241"/>
-      <c r="AF3" s="242"/>
-      <c r="AG3" s="243"/>
-      <c r="AH3" s="244"/>
-      <c r="AI3" s="245"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="293"/>
+      <c r="T3" s="294"/>
+      <c r="U3" s="294"/>
+      <c r="V3" s="294"/>
+      <c r="W3" s="294"/>
+      <c r="X3" s="294"/>
+      <c r="Y3" s="294"/>
+      <c r="Z3" s="295"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="242"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="279"/>
+      <c r="AE3" s="279"/>
+      <c r="AF3" s="280"/>
+      <c r="AG3" s="281"/>
+      <c r="AH3" s="282"/>
+      <c r="AI3" s="283"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
       <c r="AN3" s="25"/>
     </row>
-    <row r="4" spans="1:40" s="27" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:40" s="27" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AB4" s="28"/>
       <c r="AC4" s="28"/>
       <c r="AD4" s="29"/>
@@ -7059,7 +6793,7 @@
       <c r="AI4" s="28"/>
       <c r="AJ4" s="28"/>
     </row>
-    <row r="5" spans="1:40" s="27" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="2" t="s">
         <v>35</v>
       </c>
@@ -7073,7 +6807,7 @@
       <c r="AI5" s="28"/>
       <c r="AJ5" s="28"/>
     </row>
-    <row r="6" spans="1:40" s="27" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="2"/>
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
@@ -7085,102 +6819,102 @@
       <c r="AI6" s="28"/>
       <c r="AJ6" s="28"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="265" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="263"/>
-      <c r="D7" s="261" t="s">
+      <c r="C7" s="267"/>
+      <c r="D7" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="262"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="261" t="s">
+      <c r="E7" s="266"/>
+      <c r="F7" s="267"/>
+      <c r="G7" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="262"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="282" t="s">
+      <c r="H7" s="266"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="277" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="262"/>
-      <c r="L7" s="262"/>
-      <c r="M7" s="262"/>
-      <c r="N7" s="262"/>
-      <c r="O7" s="262"/>
-      <c r="P7" s="263"/>
-      <c r="Q7" s="261" t="s">
+      <c r="K7" s="266"/>
+      <c r="L7" s="266"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="266"/>
+      <c r="O7" s="266"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="262"/>
-      <c r="S7" s="262"/>
-      <c r="T7" s="262"/>
-      <c r="U7" s="262"/>
-      <c r="V7" s="262"/>
-      <c r="W7" s="262"/>
-      <c r="X7" s="262"/>
-      <c r="Y7" s="262"/>
-      <c r="Z7" s="262"/>
-      <c r="AA7" s="262"/>
-      <c r="AB7" s="262"/>
-      <c r="AC7" s="262"/>
-      <c r="AD7" s="262"/>
-      <c r="AE7" s="263"/>
-      <c r="AF7" s="261" t="s">
+      <c r="R7" s="266"/>
+      <c r="S7" s="266"/>
+      <c r="T7" s="266"/>
+      <c r="U7" s="266"/>
+      <c r="V7" s="266"/>
+      <c r="W7" s="266"/>
+      <c r="X7" s="266"/>
+      <c r="Y7" s="266"/>
+      <c r="Z7" s="266"/>
+      <c r="AA7" s="266"/>
+      <c r="AB7" s="266"/>
+      <c r="AC7" s="266"/>
+      <c r="AD7" s="266"/>
+      <c r="AE7" s="267"/>
+      <c r="AF7" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="262"/>
-      <c r="AH7" s="262"/>
-      <c r="AI7" s="263"/>
+      <c r="AG7" s="266"/>
+      <c r="AH7" s="266"/>
+      <c r="AI7" s="267"/>
       <c r="AJ7" s="18"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="273" t="s">
+      <c r="B8" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="274"/>
-      <c r="D8" s="275">
+      <c r="C8" s="269"/>
+      <c r="D8" s="270">
         <v>43718</v>
       </c>
-      <c r="E8" s="276"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="273" t="s">
+      <c r="E8" s="271"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="268" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="278"/>
-      <c r="I8" s="274"/>
-      <c r="J8" s="279" t="s">
+      <c r="H8" s="273"/>
+      <c r="I8" s="269"/>
+      <c r="J8" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="280"/>
-      <c r="L8" s="280"/>
-      <c r="M8" s="280"/>
-      <c r="N8" s="280"/>
-      <c r="O8" s="280"/>
-      <c r="P8" s="281"/>
-      <c r="Q8" s="279" t="s">
+      <c r="K8" s="275"/>
+      <c r="L8" s="275"/>
+      <c r="M8" s="275"/>
+      <c r="N8" s="275"/>
+      <c r="O8" s="275"/>
+      <c r="P8" s="276"/>
+      <c r="Q8" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="280"/>
-      <c r="S8" s="280"/>
-      <c r="T8" s="280"/>
-      <c r="U8" s="280"/>
-      <c r="V8" s="280"/>
-      <c r="W8" s="280"/>
-      <c r="X8" s="280"/>
-      <c r="Y8" s="280"/>
-      <c r="Z8" s="280"/>
-      <c r="AA8" s="280"/>
-      <c r="AB8" s="280"/>
-      <c r="AC8" s="280"/>
-      <c r="AD8" s="280"/>
-      <c r="AE8" s="281"/>
+      <c r="R8" s="275"/>
+      <c r="S8" s="275"/>
+      <c r="T8" s="275"/>
+      <c r="U8" s="275"/>
+      <c r="V8" s="275"/>
+      <c r="W8" s="275"/>
+      <c r="X8" s="275"/>
+      <c r="Y8" s="275"/>
+      <c r="Z8" s="275"/>
+      <c r="AA8" s="275"/>
+      <c r="AB8" s="275"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="276"/>
       <c r="AF8" s="49" t="s">
         <v>47</v>
       </c>
@@ -7189,193 +6923,193 @@
       <c r="AI8" s="23"/>
       <c r="AJ8" s="18"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
-      <c r="B9" s="264"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="270"/>
-      <c r="K9" s="271"/>
-      <c r="L9" s="271"/>
-      <c r="M9" s="271"/>
-      <c r="N9" s="271"/>
-      <c r="O9" s="271"/>
-      <c r="P9" s="272"/>
-      <c r="Q9" s="270"/>
-      <c r="R9" s="271"/>
-      <c r="S9" s="271"/>
-      <c r="T9" s="271"/>
-      <c r="U9" s="271"/>
-      <c r="V9" s="271"/>
-      <c r="W9" s="271"/>
-      <c r="X9" s="271"/>
-      <c r="Y9" s="271"/>
-      <c r="Z9" s="271"/>
-      <c r="AA9" s="271"/>
-      <c r="AB9" s="271"/>
-      <c r="AC9" s="271"/>
-      <c r="AD9" s="271"/>
-      <c r="AE9" s="272"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="263"/>
+      <c r="L9" s="263"/>
+      <c r="M9" s="263"/>
+      <c r="N9" s="263"/>
+      <c r="O9" s="263"/>
+      <c r="P9" s="264"/>
+      <c r="Q9" s="262"/>
+      <c r="R9" s="263"/>
+      <c r="S9" s="263"/>
+      <c r="T9" s="263"/>
+      <c r="U9" s="263"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="263"/>
+      <c r="Y9" s="263"/>
+      <c r="Z9" s="263"/>
+      <c r="AA9" s="263"/>
+      <c r="AB9" s="263"/>
+      <c r="AC9" s="263"/>
+      <c r="AD9" s="263"/>
+      <c r="AE9" s="264"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="47"/>
       <c r="AI9" s="48"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
-      <c r="B10" s="264"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="264"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="265"/>
-      <c r="J10" s="270"/>
-      <c r="K10" s="271"/>
-      <c r="L10" s="271"/>
-      <c r="M10" s="271"/>
-      <c r="N10" s="271"/>
-      <c r="O10" s="271"/>
-      <c r="P10" s="272"/>
-      <c r="Q10" s="270"/>
-      <c r="R10" s="271"/>
-      <c r="S10" s="271"/>
-      <c r="T10" s="271"/>
-      <c r="U10" s="271"/>
-      <c r="V10" s="271"/>
-      <c r="W10" s="271"/>
-      <c r="X10" s="271"/>
-      <c r="Y10" s="271"/>
-      <c r="Z10" s="271"/>
-      <c r="AA10" s="271"/>
-      <c r="AB10" s="271"/>
-      <c r="AC10" s="271"/>
-      <c r="AD10" s="271"/>
-      <c r="AE10" s="272"/>
+      <c r="B10" s="256"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="263"/>
+      <c r="L10" s="263"/>
+      <c r="M10" s="263"/>
+      <c r="N10" s="263"/>
+      <c r="O10" s="263"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="262"/>
+      <c r="R10" s="263"/>
+      <c r="S10" s="263"/>
+      <c r="T10" s="263"/>
+      <c r="U10" s="263"/>
+      <c r="V10" s="263"/>
+      <c r="W10" s="263"/>
+      <c r="X10" s="263"/>
+      <c r="Y10" s="263"/>
+      <c r="Z10" s="263"/>
+      <c r="AA10" s="263"/>
+      <c r="AB10" s="263"/>
+      <c r="AC10" s="263"/>
+      <c r="AD10" s="263"/>
+      <c r="AE10" s="264"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="47"/>
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="264"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="268"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="269"/>
-      <c r="I11" s="265"/>
-      <c r="J11" s="270"/>
-      <c r="K11" s="271"/>
-      <c r="L11" s="271"/>
-      <c r="M11" s="271"/>
-      <c r="N11" s="271"/>
-      <c r="O11" s="271"/>
-      <c r="P11" s="272"/>
-      <c r="Q11" s="270"/>
-      <c r="R11" s="271"/>
-      <c r="S11" s="271"/>
-      <c r="T11" s="271"/>
-      <c r="U11" s="271"/>
-      <c r="V11" s="271"/>
-      <c r="W11" s="271"/>
-      <c r="X11" s="271"/>
-      <c r="Y11" s="271"/>
-      <c r="Z11" s="271"/>
-      <c r="AA11" s="271"/>
-      <c r="AB11" s="271"/>
-      <c r="AC11" s="271"/>
-      <c r="AD11" s="271"/>
-      <c r="AE11" s="272"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="263"/>
+      <c r="L11" s="263"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="263"/>
+      <c r="P11" s="264"/>
+      <c r="Q11" s="262"/>
+      <c r="R11" s="263"/>
+      <c r="S11" s="263"/>
+      <c r="T11" s="263"/>
+      <c r="U11" s="263"/>
+      <c r="V11" s="263"/>
+      <c r="W11" s="263"/>
+      <c r="X11" s="263"/>
+      <c r="Y11" s="263"/>
+      <c r="Z11" s="263"/>
+      <c r="AA11" s="263"/>
+      <c r="AB11" s="263"/>
+      <c r="AC11" s="263"/>
+      <c r="AD11" s="263"/>
+      <c r="AE11" s="264"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="267"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="264"/>
-      <c r="H12" s="269"/>
-      <c r="I12" s="265"/>
-      <c r="J12" s="270"/>
-      <c r="K12" s="271"/>
-      <c r="L12" s="271"/>
-      <c r="M12" s="271"/>
-      <c r="N12" s="271"/>
-      <c r="O12" s="271"/>
-      <c r="P12" s="272"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="271"/>
-      <c r="S12" s="271"/>
-      <c r="T12" s="271"/>
-      <c r="U12" s="271"/>
-      <c r="V12" s="271"/>
-      <c r="W12" s="271"/>
-      <c r="X12" s="271"/>
-      <c r="Y12" s="271"/>
-      <c r="Z12" s="271"/>
-      <c r="AA12" s="271"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="271"/>
-      <c r="AD12" s="271"/>
-      <c r="AE12" s="272"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="262"/>
+      <c r="R12" s="263"/>
+      <c r="S12" s="263"/>
+      <c r="T12" s="263"/>
+      <c r="U12" s="263"/>
+      <c r="V12" s="263"/>
+      <c r="W12" s="263"/>
+      <c r="X12" s="263"/>
+      <c r="Y12" s="263"/>
+      <c r="Z12" s="263"/>
+      <c r="AA12" s="263"/>
+      <c r="AB12" s="263"/>
+      <c r="AC12" s="263"/>
+      <c r="AD12" s="263"/>
+      <c r="AE12" s="264"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="47"/>
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="267"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="271"/>
-      <c r="L13" s="271"/>
-      <c r="M13" s="271"/>
-      <c r="N13" s="271"/>
-      <c r="O13" s="271"/>
-      <c r="P13" s="272"/>
-      <c r="Q13" s="270"/>
-      <c r="R13" s="271"/>
-      <c r="S13" s="271"/>
-      <c r="T13" s="271"/>
-      <c r="U13" s="271"/>
-      <c r="V13" s="271"/>
-      <c r="W13" s="271"/>
-      <c r="X13" s="271"/>
-      <c r="Y13" s="271"/>
-      <c r="Z13" s="271"/>
-      <c r="AA13" s="271"/>
-      <c r="AB13" s="271"/>
-      <c r="AC13" s="271"/>
-      <c r="AD13" s="271"/>
-      <c r="AE13" s="272"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="262"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="262"/>
+      <c r="R13" s="263"/>
+      <c r="S13" s="263"/>
+      <c r="T13" s="263"/>
+      <c r="U13" s="263"/>
+      <c r="V13" s="263"/>
+      <c r="W13" s="263"/>
+      <c r="X13" s="263"/>
+      <c r="Y13" s="263"/>
+      <c r="Z13" s="263"/>
+      <c r="AA13" s="263"/>
+      <c r="AB13" s="263"/>
+      <c r="AC13" s="263"/>
+      <c r="AD13" s="263"/>
+      <c r="AE13" s="264"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="58"/>
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
@@ -7412,7 +7146,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1">
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="58"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
@@ -7449,7 +7183,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="58"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
@@ -7486,7 +7220,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="58"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
@@ -7523,7 +7257,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="58"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
@@ -7560,7 +7294,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="48"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="58"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39"/>
@@ -7597,7 +7331,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="48"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="58"/>
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
@@ -7634,7 +7368,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="48"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="58"/>
       <c r="B21" s="38"/>
       <c r="C21" s="39"/>
@@ -7671,7 +7405,7 @@
       <c r="AH21" s="47"/>
       <c r="AI21" s="48"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="58"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
@@ -7708,7 +7442,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="48"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="58"/>
       <c r="B23" s="38"/>
       <c r="C23" s="39"/>
@@ -7745,7 +7479,7 @@
       <c r="AH23" s="47"/>
       <c r="AI23" s="48"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="58"/>
       <c r="B24" s="38"/>
       <c r="C24" s="39"/>
@@ -7782,7 +7516,7 @@
       <c r="AH24" s="47"/>
       <c r="AI24" s="48"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="58"/>
       <c r="B25" s="38"/>
       <c r="C25" s="39"/>
@@ -7819,7 +7553,7 @@
       <c r="AH25" s="47"/>
       <c r="AI25" s="48"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="58"/>
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
@@ -7856,7 +7590,7 @@
       <c r="AH26" s="47"/>
       <c r="AI26" s="48"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="58"/>
       <c r="B27" s="38"/>
       <c r="C27" s="39"/>
@@ -7893,7 +7627,7 @@
       <c r="AH27" s="47"/>
       <c r="AI27" s="48"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="58"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
@@ -7930,7 +7664,7 @@
       <c r="AH28" s="47"/>
       <c r="AI28" s="48"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="58"/>
       <c r="B29" s="38"/>
       <c r="C29" s="39"/>
@@ -7967,7 +7701,7 @@
       <c r="AH29" s="47"/>
       <c r="AI29" s="48"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="58"/>
       <c r="B30" s="38"/>
       <c r="C30" s="39"/>
@@ -8004,7 +7738,7 @@
       <c r="AH30" s="47"/>
       <c r="AI30" s="48"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="58"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
@@ -8041,7 +7775,7 @@
       <c r="AH31" s="47"/>
       <c r="AI31" s="48"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="58"/>
       <c r="B32" s="38"/>
       <c r="C32" s="39"/>
@@ -8078,7 +7812,7 @@
       <c r="AH32" s="47"/>
       <c r="AI32" s="48"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="58"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
@@ -8117,35 +7851,14 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -8162,14 +7875,35 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8179,7 +7913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8189,7 +7923,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="121" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="228" customWidth="1"/>
@@ -8324,161 +8058,161 @@
     <col min="16163" max="16384" width="4.83203125" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="305" t="s">
+    <row r="1" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="308" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="317" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="296" t="str">
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="319"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="297"/>
-      <c r="U1" s="297"/>
-      <c r="V1" s="297"/>
-      <c r="W1" s="297"/>
-      <c r="X1" s="297"/>
-      <c r="Y1" s="297"/>
-      <c r="Z1" s="298"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="307"/>
-      <c r="AC1" s="323" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="324"/>
-      <c r="AE1" s="324"/>
-      <c r="AF1" s="325"/>
-      <c r="AG1" s="320">
+      <c r="AD1" s="300"/>
+      <c r="AE1" s="300"/>
+      <c r="AF1" s="301"/>
+      <c r="AG1" s="296">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="321"/>
-      <c r="AI1" s="322"/>
-    </row>
-    <row r="2" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="305" t="s">
+      <c r="AH1" s="297"/>
+      <c r="AI1" s="298"/>
+    </row>
+    <row r="2" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="302" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="306"/>
-      <c r="C2" s="306"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="308" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="310"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="300"/>
-      <c r="U2" s="300"/>
-      <c r="V2" s="300"/>
-      <c r="W2" s="300"/>
-      <c r="X2" s="300"/>
-      <c r="Y2" s="300"/>
-      <c r="Z2" s="301"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="316"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="307"/>
-      <c r="AC2" s="323" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="324"/>
-      <c r="AE2" s="324"/>
-      <c r="AF2" s="325"/>
-      <c r="AG2" s="320" t="str">
+      <c r="AD2" s="300"/>
+      <c r="AE2" s="300"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="296" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="321"/>
-      <c r="AI2" s="322"/>
-    </row>
-    <row r="3" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="305" t="s">
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="298"/>
+    </row>
+    <row r="3" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="308" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="310"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="302"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="303"/>
-      <c r="W3" s="303"/>
-      <c r="X3" s="303"/>
-      <c r="Y3" s="303"/>
-      <c r="Z3" s="304"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="307"/>
-      <c r="AC3" s="323" t="str">
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="316"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="324"/>
-      <c r="AE3" s="324"/>
-      <c r="AF3" s="325"/>
-      <c r="AG3" s="320" t="str">
+      <c r="AD3" s="300"/>
+      <c r="AE3" s="300"/>
+      <c r="AF3" s="301"/>
+      <c r="AG3" s="296" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="321"/>
-      <c r="AI3" s="322"/>
-    </row>
-    <row r="4" spans="1:35" s="96" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="297"/>
+      <c r="AI3" s="298"/>
+    </row>
+    <row r="4" spans="1:35" s="96" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="200"/>
       <c r="B4" s="200"/>
       <c r="C4" s="200"/>
@@ -8515,7 +8249,7 @@
       <c r="AH4" s="200"/>
       <c r="AI4" s="200"/>
     </row>
-    <row r="5" spans="1:35" s="96" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="200"/>
       <c r="B5" s="200"/>
       <c r="C5" s="200"/>
@@ -8554,11 +8288,11 @@
       <c r="AH5" s="200"/>
       <c r="AI5" s="200"/>
     </row>
-    <row r="6" spans="1:35" s="96" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N6" s="203"/>
       <c r="AC6" s="204"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="205"/>
       <c r="B7" s="206" t="s">
         <v>94</v>
@@ -8597,7 +8331,7 @@
       <c r="AH7" s="209"/>
       <c r="AI7" s="210"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="205"/>
       <c r="B8" s="206"/>
       <c r="C8" s="206"/>
@@ -8634,7 +8368,7 @@
       <c r="AH8" s="212"/>
       <c r="AI8" s="210"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="205"/>
       <c r="B9" s="206" t="s">
         <v>119</v>
@@ -8673,7 +8407,7 @@
       <c r="AH9" s="213"/>
       <c r="AI9" s="205"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="205"/>
       <c r="B10" s="59"/>
       <c r="C10" s="61"/>
@@ -8710,7 +8444,7 @@
       <c r="AH10" s="209"/>
       <c r="AI10" s="210"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="205"/>
       <c r="B11" s="61" t="s">
         <v>93</v>
@@ -8749,7 +8483,7 @@
       <c r="AH11" s="209"/>
       <c r="AI11" s="210"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="205"/>
       <c r="B12" s="61"/>
       <c r="C12" s="206" t="s">
@@ -8788,7 +8522,7 @@
       <c r="AH12" s="209"/>
       <c r="AI12" s="210"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="205"/>
       <c r="B13" s="59"/>
       <c r="C13" s="205"/>
@@ -8825,7 +8559,7 @@
       <c r="AH13" s="209"/>
       <c r="AI13" s="210"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="205"/>
       <c r="B14" s="210"/>
       <c r="C14" s="206"/>
@@ -8862,7 +8596,7 @@
       <c r="AH14" s="209"/>
       <c r="AI14" s="210"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="205"/>
       <c r="B15" s="206"/>
       <c r="C15" s="205"/>
@@ -8899,7 +8633,7 @@
       <c r="AH15" s="209"/>
       <c r="AI15" s="210"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="205"/>
       <c r="B16" s="206"/>
       <c r="C16" s="206"/>
@@ -8936,7 +8670,7 @@
       <c r="AH16" s="209"/>
       <c r="AI16" s="210"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="205"/>
       <c r="B17" s="96"/>
       <c r="C17" s="206"/>
@@ -8973,7 +8707,7 @@
       <c r="AH17" s="209"/>
       <c r="AI17" s="210"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="205"/>
       <c r="B18" s="96"/>
       <c r="C18" s="205"/>
@@ -9010,7 +8744,7 @@
       <c r="AH18" s="209"/>
       <c r="AI18" s="210"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="205"/>
       <c r="B19" s="96"/>
       <c r="C19" s="205"/>
@@ -9047,7 +8781,7 @@
       <c r="AH19" s="209"/>
       <c r="AI19" s="210"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="205"/>
       <c r="B20" s="96"/>
       <c r="C20" s="205"/>
@@ -9084,7 +8818,7 @@
       <c r="AH20" s="209"/>
       <c r="AI20" s="210"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="205"/>
       <c r="B21" s="96"/>
       <c r="C21" s="205"/>
@@ -9121,7 +8855,7 @@
       <c r="AH21" s="209"/>
       <c r="AI21" s="210"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="205"/>
       <c r="B22" s="96"/>
       <c r="C22" s="205"/>
@@ -9158,7 +8892,7 @@
       <c r="AH22" s="209"/>
       <c r="AI22" s="210"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="205"/>
       <c r="B23" s="214"/>
       <c r="C23" s="59"/>
@@ -9195,7 +8929,7 @@
       <c r="AH23" s="209"/>
       <c r="AI23" s="210"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="205"/>
       <c r="B24" s="96"/>
       <c r="C24" s="205"/>
@@ -9232,7 +8966,7 @@
       <c r="AH24" s="209"/>
       <c r="AI24" s="210"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="205"/>
       <c r="B25" s="96"/>
       <c r="C25" s="205"/>
@@ -9269,7 +9003,7 @@
       <c r="AH25" s="209"/>
       <c r="AI25" s="210"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="205"/>
       <c r="B26" s="96"/>
       <c r="C26" s="205"/>
@@ -9306,7 +9040,7 @@
       <c r="AH26" s="209"/>
       <c r="AI26" s="210"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="205"/>
       <c r="B27" s="96"/>
       <c r="C27" s="205"/>
@@ -9343,7 +9077,7 @@
       <c r="AH27" s="209"/>
       <c r="AI27" s="210"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="205"/>
       <c r="B28" s="96"/>
       <c r="C28" s="205"/>
@@ -9380,7 +9114,7 @@
       <c r="AH28" s="209"/>
       <c r="AI28" s="210"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="205"/>
       <c r="B29" s="96"/>
       <c r="C29" s="205"/>
@@ -9417,7 +9151,7 @@
       <c r="AH29" s="209"/>
       <c r="AI29" s="210"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="61"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -9454,7 +9188,7 @@
       <c r="AH30" s="217"/>
       <c r="AI30" s="218"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="61"/>
       <c r="B31" s="96"/>
       <c r="C31" s="204"/>
@@ -9491,7 +9225,7 @@
       <c r="AH31" s="217"/>
       <c r="AI31" s="218"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61"/>
       <c r="B32" s="99"/>
       <c r="C32" s="205"/>
@@ -9528,7 +9262,7 @@
       <c r="AH32" s="217"/>
       <c r="AI32" s="218"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="61"/>
       <c r="B33" s="99"/>
       <c r="C33" s="205"/>
@@ -9565,7 +9299,7 @@
       <c r="AH33" s="217"/>
       <c r="AI33" s="218"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="61"/>
       <c r="B34" s="99"/>
       <c r="C34" s="205"/>
@@ -9602,7 +9336,7 @@
       <c r="AH34" s="217"/>
       <c r="AI34" s="218"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="61"/>
       <c r="B35" s="99"/>
       <c r="C35" s="205"/>
@@ -9639,7 +9373,7 @@
       <c r="AH35" s="217"/>
       <c r="AI35" s="218"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="61"/>
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
@@ -9676,7 +9410,7 @@
       <c r="AH36" s="225"/>
       <c r="AI36" s="61"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="226"/>
       <c r="E37" s="226"/>
       <c r="F37" s="226"/>
@@ -9708,7 +9442,7 @@
       <c r="AH37" s="233"/>
       <c r="AI37" s="229"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="229"/>
       <c r="T38" s="229"/>
       <c r="U38" s="230"/>
@@ -9727,7 +9461,7 @@
       <c r="AH38" s="236"/>
       <c r="AI38" s="229"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="237"/>
       <c r="S39" s="229"/>
       <c r="T39" s="230"/>
@@ -9747,7 +9481,7 @@
       <c r="AH39" s="236"/>
       <c r="AI39" s="229"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="229"/>
       <c r="T40" s="229"/>
       <c r="U40" s="229"/>
@@ -9766,7 +9500,7 @@
       <c r="AH40" s="236"/>
       <c r="AI40" s="229"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="226"/>
       <c r="K41" s="226"/>
       <c r="L41" s="226"/>
@@ -9780,37 +9514,37 @@
       <c r="AH41" s="236"/>
       <c r="AI41" s="229"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="229"/>
       <c r="AF42" s="234"/>
       <c r="AG42" s="235"/>
       <c r="AH42" s="236"/>
       <c r="AI42" s="229"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="229"/>
       <c r="AF43" s="234"/>
       <c r="AG43" s="234"/>
       <c r="AH43" s="236"/>
       <c r="AI43" s="229"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="226"/>
       <c r="AF44" s="238"/>
       <c r="AG44" s="238"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="226"/>
       <c r="AG45" s="238"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="238"/>
       <c r="AG46" s="238"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="238"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="226"/>
       <c r="T48" s="226"/>
       <c r="V48" s="226"/>
@@ -9823,7 +9557,7 @@
       <c r="AC48" s="226"/>
       <c r="AD48" s="226"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="226"/>
       <c r="S49" s="226"/>
       <c r="T49" s="226"/>
@@ -9838,10 +9572,10 @@
       <c r="AD49" s="226"/>
       <c r="AG49" s="238"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="226"/>
     </row>
-    <row r="51" spans="1:34" s="226" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="226" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="121"/>
       <c r="B51" s="121"/>
       <c r="C51" s="121"/>
@@ -9874,7 +9608,7 @@
       <c r="AD51" s="121"/>
       <c r="AH51" s="237"/>
     </row>
-    <row r="52" spans="1:34" s="226" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="226" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="121"/>
       <c r="B52" s="121"/>
       <c r="C52" s="121"/>
@@ -9909,13 +9643,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9926,12 +9653,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9943,169 +9676,169 @@
   <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="154"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="305" t="s">
+    <row r="1" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="302" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="308" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="317" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="296" t="str">
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="319"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="297"/>
-      <c r="U1" s="297"/>
-      <c r="V1" s="297"/>
-      <c r="W1" s="297"/>
-      <c r="X1" s="297"/>
-      <c r="Y1" s="297"/>
-      <c r="Z1" s="298"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="307"/>
-      <c r="AC1" s="323" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="324"/>
-      <c r="AE1" s="324"/>
-      <c r="AF1" s="325"/>
-      <c r="AG1" s="367">
+      <c r="AD1" s="300"/>
+      <c r="AE1" s="300"/>
+      <c r="AF1" s="301"/>
+      <c r="AG1" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="368"/>
-      <c r="AI1" s="369"/>
-    </row>
-    <row r="2" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="305" t="s">
+      <c r="AH1" s="327"/>
+      <c r="AI1" s="328"/>
+    </row>
+    <row r="2" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="306"/>
-      <c r="C2" s="306"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="308" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="310"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="300"/>
-      <c r="U2" s="300"/>
-      <c r="V2" s="300"/>
-      <c r="W2" s="300"/>
-      <c r="X2" s="300"/>
-      <c r="Y2" s="300"/>
-      <c r="Z2" s="301"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="316"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="307"/>
-      <c r="AC2" s="323" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="324"/>
-      <c r="AE2" s="324"/>
-      <c r="AF2" s="325"/>
-      <c r="AG2" s="367" t="str">
+      <c r="AD2" s="300"/>
+      <c r="AE2" s="300"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="368"/>
-      <c r="AI2" s="369"/>
-    </row>
-    <row r="3" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="305" t="s">
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="328"/>
+    </row>
+    <row r="3" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="308" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="310"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="302"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="303"/>
-      <c r="W3" s="303"/>
-      <c r="X3" s="303"/>
-      <c r="Y3" s="303"/>
-      <c r="Z3" s="304"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="307"/>
-      <c r="AC3" s="323" t="str">
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="316"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="324"/>
-      <c r="AE3" s="324"/>
-      <c r="AF3" s="325"/>
-      <c r="AG3" s="367" t="str">
+      <c r="AD3" s="300"/>
+      <c r="AE3" s="300"/>
+      <c r="AF3" s="301"/>
+      <c r="AG3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="368"/>
-      <c r="AI3" s="369"/>
-    </row>
-    <row r="4" spans="1:35" s="151" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="327"/>
+      <c r="AI3" s="328"/>
+    </row>
+    <row r="4" spans="1:35" s="151" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="130"/>
       <c r="AD4" s="65"/>
       <c r="AE4" s="65"/>
@@ -10114,23 +9847,23 @@
       <c r="AH4" s="152"/>
       <c r="AI4" s="152"/>
     </row>
-    <row r="5" spans="1:35" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:35" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="121" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="108"/>
     </row>
-    <row r="6" spans="1:35" s="60" customFormat="1" ht="6" customHeight="1">
+    <row r="6" spans="1:35" s="60" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="121"/>
       <c r="C6" s="108"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="326" t="s">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="336" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="335"/>
-      <c r="C7" s="335"/>
-      <c r="D7" s="336"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="338"/>
       <c r="E7" s="153"/>
       <c r="F7" s="153"/>
       <c r="G7" s="153"/>
@@ -10143,82 +9876,82 @@
       <c r="N7" s="153"/>
       <c r="O7" s="153"/>
       <c r="P7" s="153"/>
-      <c r="Q7" s="340" t="s">
+      <c r="Q7" s="369" t="s">
         <v>125</v>
       </c>
-      <c r="R7" s="341"/>
-      <c r="S7" s="341"/>
-      <c r="T7" s="342"/>
-      <c r="U7" s="329" t="s">
+      <c r="R7" s="358"/>
+      <c r="S7" s="358"/>
+      <c r="T7" s="359"/>
+      <c r="U7" s="363" t="s">
         <v>96</v>
       </c>
-      <c r="V7" s="330"/>
-      <c r="W7" s="330"/>
-      <c r="X7" s="330"/>
-      <c r="Y7" s="330"/>
-      <c r="Z7" s="330"/>
-      <c r="AA7" s="330"/>
-      <c r="AB7" s="330"/>
-      <c r="AC7" s="330"/>
-      <c r="AD7" s="330"/>
-      <c r="AE7" s="330"/>
-      <c r="AF7" s="330"/>
-      <c r="AG7" s="330"/>
-      <c r="AH7" s="330"/>
-      <c r="AI7" s="331"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="337" t="s">
+      <c r="V7" s="364"/>
+      <c r="W7" s="364"/>
+      <c r="X7" s="364"/>
+      <c r="Y7" s="364"/>
+      <c r="Z7" s="364"/>
+      <c r="AA7" s="364"/>
+      <c r="AB7" s="364"/>
+      <c r="AC7" s="364"/>
+      <c r="AD7" s="364"/>
+      <c r="AE7" s="364"/>
+      <c r="AF7" s="364"/>
+      <c r="AG7" s="364"/>
+      <c r="AH7" s="364"/>
+      <c r="AI7" s="365"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="366" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="338"/>
-      <c r="C8" s="338"/>
-      <c r="D8" s="339"/>
-      <c r="E8" s="332" t="s">
+      <c r="B8" s="367"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="348" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="333"/>
-      <c r="G8" s="333"/>
-      <c r="H8" s="333"/>
-      <c r="I8" s="333"/>
-      <c r="J8" s="333"/>
-      <c r="K8" s="333"/>
-      <c r="L8" s="333"/>
-      <c r="M8" s="333"/>
-      <c r="N8" s="333"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="333"/>
-      <c r="Q8" s="326" t="s">
+      <c r="F8" s="349"/>
+      <c r="G8" s="349"/>
+      <c r="H8" s="349"/>
+      <c r="I8" s="349"/>
+      <c r="J8" s="349"/>
+      <c r="K8" s="349"/>
+      <c r="L8" s="349"/>
+      <c r="M8" s="349"/>
+      <c r="N8" s="349"/>
+      <c r="O8" s="349"/>
+      <c r="P8" s="349"/>
+      <c r="Q8" s="336" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="335"/>
-      <c r="S8" s="335"/>
-      <c r="T8" s="336"/>
-      <c r="U8" s="332" t="s">
+      <c r="R8" s="337"/>
+      <c r="S8" s="337"/>
+      <c r="T8" s="338"/>
+      <c r="U8" s="348" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="333"/>
-      <c r="W8" s="333"/>
-      <c r="X8" s="333"/>
-      <c r="Y8" s="333"/>
-      <c r="Z8" s="333"/>
-      <c r="AA8" s="333"/>
-      <c r="AB8" s="333"/>
-      <c r="AC8" s="333"/>
-      <c r="AD8" s="333"/>
-      <c r="AE8" s="333"/>
-      <c r="AF8" s="333"/>
-      <c r="AG8" s="333"/>
-      <c r="AH8" s="333"/>
-      <c r="AI8" s="334"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="326" t="s">
+      <c r="V8" s="349"/>
+      <c r="W8" s="349"/>
+      <c r="X8" s="349"/>
+      <c r="Y8" s="349"/>
+      <c r="Z8" s="349"/>
+      <c r="AA8" s="349"/>
+      <c r="AB8" s="349"/>
+      <c r="AC8" s="349"/>
+      <c r="AD8" s="349"/>
+      <c r="AE8" s="349"/>
+      <c r="AF8" s="349"/>
+      <c r="AG8" s="349"/>
+      <c r="AH8" s="349"/>
+      <c r="AI8" s="350"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="336" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="335"/>
-      <c r="C9" s="335"/>
-      <c r="D9" s="336"/>
+      <c r="B9" s="337"/>
+      <c r="C9" s="337"/>
+      <c r="D9" s="338"/>
       <c r="E9" s="155"/>
       <c r="F9" s="155"/>
       <c r="G9" s="155"/>
@@ -10251,7 +9984,7 @@
       <c r="AH9" s="156"/>
       <c r="AI9" s="157"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="158"/>
       <c r="B10" s="159" t="s">
         <v>101</v>
@@ -10290,7 +10023,7 @@
       <c r="AH10" s="150"/>
       <c r="AI10" s="160"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="161"/>
       <c r="B11" s="150"/>
       <c r="C11" s="159"/>
@@ -10327,7 +10060,7 @@
       <c r="AH11" s="150"/>
       <c r="AI11" s="160"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="162"/>
       <c r="B12" s="150"/>
       <c r="C12" s="159"/>
@@ -10364,7 +10097,7 @@
       <c r="AH12" s="150"/>
       <c r="AI12" s="160"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="163"/>
       <c r="B13" s="164"/>
       <c r="C13" s="165" t="s">
@@ -10403,13 +10136,13 @@
       <c r="AH13" s="164"/>
       <c r="AI13" s="166"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="326" t="s">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="336" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="327"/>
-      <c r="C14" s="327"/>
-      <c r="D14" s="328"/>
+      <c r="B14" s="330"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="331"/>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
       <c r="G14" s="156"/>
@@ -10442,7 +10175,7 @@
       <c r="AH14" s="156"/>
       <c r="AI14" s="157"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="161"/>
       <c r="B15" s="150"/>
       <c r="C15" s="150"/>
@@ -10479,7 +10212,7 @@
       <c r="AH15" s="150"/>
       <c r="AI15" s="160"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="161"/>
       <c r="B16" s="150"/>
       <c r="C16" s="150"/>
@@ -10516,7 +10249,7 @@
       <c r="AH16" s="150"/>
       <c r="AI16" s="160"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="167"/>
       <c r="B17" s="164"/>
       <c r="C17" s="164"/>
@@ -10553,13 +10286,13 @@
       <c r="AH17" s="164"/>
       <c r="AI17" s="166"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="343" t="s">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="351" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="344"/>
-      <c r="C18" s="344"/>
-      <c r="D18" s="345"/>
+      <c r="B18" s="352"/>
+      <c r="C18" s="352"/>
+      <c r="D18" s="353"/>
       <c r="E18" s="168"/>
       <c r="F18" s="169"/>
       <c r="G18" s="141"/>
@@ -10572,12 +10305,12 @@
       <c r="N18" s="141"/>
       <c r="O18" s="139"/>
       <c r="P18" s="141"/>
-      <c r="Q18" s="343" t="s">
+      <c r="Q18" s="351" t="s">
         <v>105</v>
       </c>
-      <c r="R18" s="344"/>
-      <c r="S18" s="344"/>
-      <c r="T18" s="345"/>
+      <c r="R18" s="352"/>
+      <c r="S18" s="352"/>
+      <c r="T18" s="353"/>
       <c r="U18" s="159"/>
       <c r="V18" s="159"/>
       <c r="W18" s="159"/>
@@ -10594,7 +10327,7 @@
       <c r="AH18" s="159"/>
       <c r="AI18" s="170"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="171"/>
       <c r="B19" s="172"/>
       <c r="C19" s="172"/>
@@ -10639,7 +10372,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="175"/>
       <c r="B20" s="176"/>
       <c r="C20" s="176"/>
@@ -10676,56 +10409,56 @@
       <c r="AH20" s="159"/>
       <c r="AI20" s="160"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="326" t="s">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="335"/>
-      <c r="C21" s="335"/>
-      <c r="D21" s="336"/>
-      <c r="E21" s="332" t="s">
+      <c r="B21" s="337"/>
+      <c r="C21" s="337"/>
+      <c r="D21" s="338"/>
+      <c r="E21" s="348" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="333"/>
-      <c r="G21" s="333"/>
-      <c r="H21" s="333"/>
-      <c r="I21" s="333"/>
-      <c r="J21" s="333"/>
-      <c r="K21" s="333"/>
-      <c r="L21" s="333"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="333"/>
-      <c r="O21" s="333"/>
-      <c r="P21" s="334"/>
-      <c r="Q21" s="326" t="s">
+      <c r="F21" s="349"/>
+      <c r="G21" s="349"/>
+      <c r="H21" s="349"/>
+      <c r="I21" s="349"/>
+      <c r="J21" s="349"/>
+      <c r="K21" s="349"/>
+      <c r="L21" s="349"/>
+      <c r="M21" s="349"/>
+      <c r="N21" s="349"/>
+      <c r="O21" s="349"/>
+      <c r="P21" s="350"/>
+      <c r="Q21" s="336" t="s">
         <v>110</v>
       </c>
-      <c r="R21" s="335"/>
-      <c r="S21" s="335"/>
-      <c r="T21" s="336"/>
-      <c r="U21" s="346"/>
-      <c r="V21" s="347"/>
-      <c r="W21" s="347"/>
-      <c r="X21" s="347"/>
-      <c r="Y21" s="347"/>
-      <c r="Z21" s="347"/>
-      <c r="AA21" s="347"/>
-      <c r="AB21" s="347"/>
-      <c r="AC21" s="347"/>
-      <c r="AD21" s="347"/>
-      <c r="AE21" s="347"/>
-      <c r="AF21" s="347"/>
-      <c r="AG21" s="347"/>
-      <c r="AH21" s="347"/>
-      <c r="AI21" s="348"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="349" t="s">
+      <c r="R21" s="337"/>
+      <c r="S21" s="337"/>
+      <c r="T21" s="338"/>
+      <c r="U21" s="354"/>
+      <c r="V21" s="355"/>
+      <c r="W21" s="355"/>
+      <c r="X21" s="355"/>
+      <c r="Y21" s="355"/>
+      <c r="Z21" s="355"/>
+      <c r="AA21" s="355"/>
+      <c r="AB21" s="355"/>
+      <c r="AC21" s="355"/>
+      <c r="AD21" s="355"/>
+      <c r="AE21" s="355"/>
+      <c r="AF21" s="355"/>
+      <c r="AG21" s="355"/>
+      <c r="AH21" s="355"/>
+      <c r="AI21" s="356"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="357" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="341"/>
-      <c r="C22" s="341"/>
-      <c r="D22" s="342"/>
+      <c r="B22" s="358"/>
+      <c r="C22" s="358"/>
+      <c r="D22" s="359"/>
       <c r="E22" s="178"/>
       <c r="F22" s="179"/>
       <c r="G22" s="156"/>
@@ -10738,12 +10471,12 @@
       <c r="N22" s="156"/>
       <c r="O22" s="155"/>
       <c r="P22" s="156"/>
-      <c r="Q22" s="349" t="s">
+      <c r="Q22" s="357" t="s">
         <v>112</v>
       </c>
-      <c r="R22" s="341"/>
-      <c r="S22" s="341"/>
-      <c r="T22" s="342"/>
+      <c r="R22" s="358"/>
+      <c r="S22" s="358"/>
+      <c r="T22" s="359"/>
       <c r="U22" s="132"/>
       <c r="V22" s="133"/>
       <c r="W22" s="180"/>
@@ -10760,7 +10493,7 @@
       <c r="AH22" s="180"/>
       <c r="AI22" s="134"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="175"/>
       <c r="B23" s="176"/>
       <c r="C23" s="176"/>
@@ -10805,37 +10538,37 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="364" t="s">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="345" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="365"/>
-      <c r="C24" s="365"/>
-      <c r="D24" s="366"/>
-      <c r="E24" s="332" t="s">
+      <c r="B24" s="346"/>
+      <c r="C24" s="346"/>
+      <c r="D24" s="347"/>
+      <c r="E24" s="348" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="333"/>
-      <c r="G24" s="333"/>
-      <c r="H24" s="333"/>
-      <c r="I24" s="333"/>
-      <c r="J24" s="333"/>
-      <c r="K24" s="333"/>
-      <c r="L24" s="333"/>
-      <c r="M24" s="333"/>
-      <c r="N24" s="333"/>
-      <c r="O24" s="333"/>
-      <c r="P24" s="334"/>
-      <c r="Q24" s="350" t="s">
+      <c r="F24" s="349"/>
+      <c r="G24" s="349"/>
+      <c r="H24" s="349"/>
+      <c r="I24" s="349"/>
+      <c r="J24" s="349"/>
+      <c r="K24" s="349"/>
+      <c r="L24" s="349"/>
+      <c r="M24" s="349"/>
+      <c r="N24" s="349"/>
+      <c r="O24" s="349"/>
+      <c r="P24" s="350"/>
+      <c r="Q24" s="360" t="s">
         <v>115</v>
       </c>
-      <c r="R24" s="351"/>
-      <c r="S24" s="351"/>
-      <c r="T24" s="352"/>
-      <c r="U24" s="356"/>
-      <c r="V24" s="357"/>
-      <c r="W24" s="357"/>
-      <c r="X24" s="357"/>
+      <c r="R24" s="361"/>
+      <c r="S24" s="361"/>
+      <c r="T24" s="362"/>
+      <c r="U24" s="334"/>
+      <c r="V24" s="335"/>
+      <c r="W24" s="335"/>
+      <c r="X24" s="335"/>
       <c r="Y24" s="187" t="s">
         <v>116</v>
       </c>
@@ -10850,27 +10583,27 @@
       <c r="AH24" s="187"/>
       <c r="AI24" s="189"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="360" t="s">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="341" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="361"/>
-      <c r="C25" s="361"/>
-      <c r="D25" s="362"/>
+      <c r="B25" s="342"/>
+      <c r="C25" s="342"/>
+      <c r="D25" s="343"/>
       <c r="E25" s="178"/>
       <c r="F25" s="190"/>
       <c r="G25" s="179" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="354"/>
-      <c r="I25" s="355"/>
-      <c r="J25" s="355"/>
-      <c r="K25" s="355"/>
-      <c r="L25" s="355"/>
-      <c r="M25" s="355"/>
-      <c r="N25" s="355"/>
-      <c r="O25" s="355"/>
-      <c r="P25" s="355"/>
+      <c r="H25" s="332"/>
+      <c r="I25" s="333"/>
+      <c r="J25" s="333"/>
+      <c r="K25" s="333"/>
+      <c r="L25" s="333"/>
+      <c r="M25" s="333"/>
+      <c r="N25" s="333"/>
+      <c r="O25" s="333"/>
+      <c r="P25" s="333"/>
       <c r="Q25" s="156" t="s">
         <v>107</v>
       </c>
@@ -10879,15 +10612,15 @@
       <c r="T25" s="179" t="s">
         <v>106</v>
       </c>
-      <c r="U25" s="363"/>
-      <c r="V25" s="363"/>
-      <c r="W25" s="363"/>
-      <c r="X25" s="363"/>
-      <c r="Y25" s="363"/>
-      <c r="Z25" s="363"/>
-      <c r="AA25" s="363"/>
-      <c r="AB25" s="363"/>
-      <c r="AC25" s="363"/>
+      <c r="U25" s="344"/>
+      <c r="V25" s="344"/>
+      <c r="W25" s="344"/>
+      <c r="X25" s="344"/>
+      <c r="Y25" s="344"/>
+      <c r="Z25" s="344"/>
+      <c r="AA25" s="344"/>
+      <c r="AB25" s="344"/>
+      <c r="AC25" s="344"/>
       <c r="AD25" s="156" t="s">
         <v>107</v>
       </c>
@@ -10897,7 +10630,7 @@
       <c r="AH25" s="156"/>
       <c r="AI25" s="157"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="191"/>
       <c r="B26" s="192"/>
       <c r="C26" s="192"/>
@@ -10907,15 +10640,15 @@
       <c r="G26" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="359"/>
-      <c r="I26" s="359"/>
-      <c r="J26" s="359"/>
-      <c r="K26" s="359"/>
-      <c r="L26" s="359"/>
-      <c r="M26" s="359"/>
-      <c r="N26" s="359"/>
-      <c r="O26" s="359"/>
-      <c r="P26" s="359"/>
+      <c r="H26" s="340"/>
+      <c r="I26" s="340"/>
+      <c r="J26" s="340"/>
+      <c r="K26" s="340"/>
+      <c r="L26" s="340"/>
+      <c r="M26" s="340"/>
+      <c r="N26" s="340"/>
+      <c r="O26" s="340"/>
+      <c r="P26" s="340"/>
       <c r="Q26" s="150" t="s">
         <v>107</v>
       </c>
@@ -10924,15 +10657,15 @@
       <c r="T26" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="U26" s="359"/>
-      <c r="V26" s="359"/>
-      <c r="W26" s="359"/>
-      <c r="X26" s="359"/>
-      <c r="Y26" s="359"/>
-      <c r="Z26" s="359"/>
-      <c r="AA26" s="359"/>
-      <c r="AB26" s="359"/>
-      <c r="AC26" s="359"/>
+      <c r="U26" s="340"/>
+      <c r="V26" s="340"/>
+      <c r="W26" s="340"/>
+      <c r="X26" s="340"/>
+      <c r="Y26" s="340"/>
+      <c r="Z26" s="340"/>
+      <c r="AA26" s="340"/>
+      <c r="AB26" s="340"/>
+      <c r="AC26" s="340"/>
       <c r="AD26" s="150" t="s">
         <v>107</v>
       </c>
@@ -10942,7 +10675,7 @@
       <c r="AH26" s="150"/>
       <c r="AI26" s="160"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="195"/>
       <c r="B27" s="196"/>
       <c r="C27" s="196"/>
@@ -10952,15 +10685,15 @@
       <c r="G27" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="358"/>
-      <c r="I27" s="358"/>
-      <c r="J27" s="358"/>
-      <c r="K27" s="358"/>
-      <c r="L27" s="358"/>
-      <c r="M27" s="358"/>
-      <c r="N27" s="358"/>
-      <c r="O27" s="358"/>
-      <c r="P27" s="358"/>
+      <c r="H27" s="339"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="339"/>
+      <c r="K27" s="339"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="339"/>
+      <c r="N27" s="339"/>
+      <c r="O27" s="339"/>
+      <c r="P27" s="339"/>
       <c r="Q27" s="164" t="s">
         <v>107</v>
       </c>
@@ -10969,31 +10702,31 @@
       <c r="T27" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="U27" s="358"/>
-      <c r="V27" s="358"/>
-      <c r="W27" s="358"/>
-      <c r="X27" s="358"/>
-      <c r="Y27" s="358"/>
-      <c r="Z27" s="358"/>
-      <c r="AA27" s="358"/>
-      <c r="AB27" s="358"/>
-      <c r="AC27" s="358"/>
-      <c r="AD27" s="358"/>
-      <c r="AE27" s="358"/>
-      <c r="AF27" s="358"/>
-      <c r="AG27" s="358"/>
-      <c r="AH27" s="358"/>
+      <c r="U27" s="339"/>
+      <c r="V27" s="339"/>
+      <c r="W27" s="339"/>
+      <c r="X27" s="339"/>
+      <c r="Y27" s="339"/>
+      <c r="Z27" s="339"/>
+      <c r="AA27" s="339"/>
+      <c r="AB27" s="339"/>
+      <c r="AC27" s="339"/>
+      <c r="AD27" s="339"/>
+      <c r="AE27" s="339"/>
+      <c r="AF27" s="339"/>
+      <c r="AG27" s="339"/>
+      <c r="AH27" s="339"/>
       <c r="AI27" s="166" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="353" t="s">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="329" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="327"/>
-      <c r="C28" s="327"/>
-      <c r="D28" s="328"/>
+      <c r="B28" s="330"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="331"/>
       <c r="E28" s="156"/>
       <c r="F28" s="156"/>
       <c r="G28" s="156"/>
@@ -11026,7 +10759,7 @@
       <c r="AH28" s="156"/>
       <c r="AI28" s="157"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="199"/>
       <c r="B29" s="150"/>
       <c r="C29" s="150"/>
@@ -11063,7 +10796,7 @@
       <c r="AH29" s="150"/>
       <c r="AI29" s="160"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="199"/>
       <c r="B30" s="150"/>
       <c r="C30" s="150"/>
@@ -11100,7 +10833,7 @@
       <c r="AH30" s="150"/>
       <c r="AI30" s="160"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="167"/>
       <c r="B31" s="164"/>
       <c r="C31" s="164"/>
@@ -11139,23 +10872,21 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11170,21 +10901,23 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11711,176 +11444,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet31">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AU31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9:AI9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="305" t="s">
+    <row r="1" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="308" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="317" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="296" t="str">
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="319"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="297"/>
-      <c r="U1" s="297"/>
-      <c r="V1" s="297"/>
-      <c r="W1" s="297"/>
-      <c r="X1" s="297"/>
-      <c r="Y1" s="297"/>
-      <c r="Z1" s="298"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="307"/>
-      <c r="AC1" s="323" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="324"/>
-      <c r="AE1" s="324"/>
-      <c r="AF1" s="325"/>
-      <c r="AG1" s="367">
+      <c r="AD1" s="300"/>
+      <c r="AE1" s="300"/>
+      <c r="AF1" s="301"/>
+      <c r="AG1" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="368"/>
-      <c r="AI1" s="369"/>
-    </row>
-    <row r="2" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="305" t="s">
+      <c r="AH1" s="327"/>
+      <c r="AI1" s="328"/>
+    </row>
+    <row r="2" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="306"/>
-      <c r="C2" s="306"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="308" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="310"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="300"/>
-      <c r="U2" s="300"/>
-      <c r="V2" s="300"/>
-      <c r="W2" s="300"/>
-      <c r="X2" s="300"/>
-      <c r="Y2" s="300"/>
-      <c r="Z2" s="301"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="316"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="307"/>
-      <c r="AC2" s="323" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="324"/>
-      <c r="AE2" s="324"/>
-      <c r="AF2" s="325"/>
-      <c r="AG2" s="367" t="str">
+      <c r="AD2" s="300"/>
+      <c r="AE2" s="300"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="368"/>
-      <c r="AI2" s="369"/>
-    </row>
-    <row r="3" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="305" t="s">
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="328"/>
+    </row>
+    <row r="3" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="302" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="308" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="310"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="302"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="303"/>
-      <c r="W3" s="303"/>
-      <c r="X3" s="303"/>
-      <c r="Y3" s="303"/>
-      <c r="Z3" s="304"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="307"/>
-      <c r="AC3" s="323" t="str">
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="316"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="324"/>
-      <c r="AE3" s="324"/>
-      <c r="AF3" s="325"/>
-      <c r="AG3" s="367" t="str">
+      <c r="AD3" s="300"/>
+      <c r="AE3" s="300"/>
+      <c r="AF3" s="301"/>
+      <c r="AG3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="368"/>
-      <c r="AI3" s="369"/>
-    </row>
-    <row r="4" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="327"/>
+      <c r="AI3" s="328"/>
+    </row>
+    <row r="4" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="110"/>
       <c r="B4" s="110"/>
       <c r="C4" s="110"/>
@@ -11917,7 +11650,7 @@
       <c r="AH4" s="115"/>
       <c r="AI4" s="115"/>
     </row>
-    <row r="5" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="116"/>
       <c r="B5" s="116"/>
       <c r="C5" s="116"/>
@@ -11937,472 +11670,472 @@
       <c r="AI5" s="119"/>
       <c r="AJ5" s="120"/>
     </row>
-    <row r="6" spans="1:36" s="60" customFormat="1">
+    <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="121" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="122"/>
     </row>
-    <row r="7" spans="1:36" s="60" customFormat="1">
+    <row r="7" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="121"/>
       <c r="C7" s="122"/>
     </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="390" t="s">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="438" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="391"/>
-      <c r="C8" s="391"/>
-      <c r="D8" s="391"/>
-      <c r="E8" s="391"/>
-      <c r="F8" s="391"/>
-      <c r="G8" s="391"/>
-      <c r="H8" s="391"/>
-      <c r="I8" s="391"/>
-      <c r="J8" s="391"/>
-      <c r="K8" s="391"/>
-      <c r="L8" s="391"/>
-      <c r="M8" s="391"/>
-      <c r="N8" s="391"/>
-      <c r="O8" s="391"/>
-      <c r="P8" s="391"/>
-      <c r="Q8" s="391"/>
-      <c r="R8" s="391"/>
-      <c r="S8" s="391"/>
-      <c r="T8" s="391"/>
-      <c r="U8" s="391"/>
-      <c r="V8" s="391"/>
-      <c r="W8" s="391"/>
-      <c r="X8" s="391"/>
-      <c r="Y8" s="391"/>
-      <c r="Z8" s="391"/>
-      <c r="AA8" s="391"/>
-      <c r="AB8" s="392"/>
-      <c r="AC8" s="456" t="s">
+      <c r="B8" s="386"/>
+      <c r="C8" s="386"/>
+      <c r="D8" s="386"/>
+      <c r="E8" s="386"/>
+      <c r="F8" s="386"/>
+      <c r="G8" s="386"/>
+      <c r="H8" s="386"/>
+      <c r="I8" s="386"/>
+      <c r="J8" s="386"/>
+      <c r="K8" s="386"/>
+      <c r="L8" s="386"/>
+      <c r="M8" s="386"/>
+      <c r="N8" s="386"/>
+      <c r="O8" s="386"/>
+      <c r="P8" s="386"/>
+      <c r="Q8" s="386"/>
+      <c r="R8" s="386"/>
+      <c r="S8" s="386"/>
+      <c r="T8" s="386"/>
+      <c r="U8" s="386"/>
+      <c r="V8" s="386"/>
+      <c r="W8" s="386"/>
+      <c r="X8" s="386"/>
+      <c r="Y8" s="386"/>
+      <c r="Z8" s="386"/>
+      <c r="AA8" s="386"/>
+      <c r="AB8" s="439"/>
+      <c r="AC8" s="385" t="s">
         <v>83</v>
       </c>
-      <c r="AD8" s="391"/>
-      <c r="AE8" s="457"/>
-      <c r="AF8" s="453"/>
-      <c r="AG8" s="454"/>
-      <c r="AH8" s="454"/>
-      <c r="AI8" s="455"/>
-    </row>
-    <row r="9" spans="1:36" s="124" customFormat="1" ht="22.5" customHeight="1">
+      <c r="AD8" s="386"/>
+      <c r="AE8" s="387"/>
+      <c r="AF8" s="382"/>
+      <c r="AG8" s="383"/>
+      <c r="AH8" s="383"/>
+      <c r="AI8" s="384"/>
+    </row>
+    <row r="9" spans="1:36" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="373" t="s">
+      <c r="B9" s="432" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="387"/>
-      <c r="D9" s="387"/>
-      <c r="E9" s="387"/>
-      <c r="F9" s="388"/>
-      <c r="G9" s="373" t="s">
+      <c r="C9" s="433"/>
+      <c r="D9" s="433"/>
+      <c r="E9" s="433"/>
+      <c r="F9" s="434"/>
+      <c r="G9" s="432" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="374"/>
-      <c r="I9" s="375"/>
-      <c r="J9" s="373" t="s">
+      <c r="H9" s="435"/>
+      <c r="I9" s="437"/>
+      <c r="J9" s="432" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="374"/>
-      <c r="L9" s="374"/>
-      <c r="M9" s="374"/>
-      <c r="N9" s="374"/>
-      <c r="O9" s="374"/>
-      <c r="P9" s="375"/>
-      <c r="Q9" s="378" t="s">
+      <c r="K9" s="435"/>
+      <c r="L9" s="435"/>
+      <c r="M9" s="435"/>
+      <c r="N9" s="435"/>
+      <c r="O9" s="435"/>
+      <c r="P9" s="437"/>
+      <c r="Q9" s="452" t="s">
         <v>88</v>
       </c>
-      <c r="R9" s="380"/>
-      <c r="S9" s="378" t="s">
+      <c r="R9" s="454"/>
+      <c r="S9" s="452" t="s">
         <v>89</v>
       </c>
-      <c r="T9" s="379"/>
-      <c r="U9" s="380"/>
-      <c r="V9" s="373" t="s">
+      <c r="T9" s="453"/>
+      <c r="U9" s="454"/>
+      <c r="V9" s="432" t="s">
         <v>90</v>
       </c>
-      <c r="W9" s="374"/>
-      <c r="X9" s="374"/>
-      <c r="Y9" s="374"/>
-      <c r="Z9" s="374"/>
-      <c r="AA9" s="374"/>
-      <c r="AB9" s="389"/>
-      <c r="AC9" s="401" t="s">
+      <c r="W9" s="435"/>
+      <c r="X9" s="435"/>
+      <c r="Y9" s="435"/>
+      <c r="Z9" s="435"/>
+      <c r="AA9" s="435"/>
+      <c r="AB9" s="436"/>
+      <c r="AC9" s="446" t="s">
         <v>91</v>
       </c>
-      <c r="AD9" s="402"/>
-      <c r="AE9" s="402"/>
-      <c r="AF9" s="402"/>
-      <c r="AG9" s="402"/>
-      <c r="AH9" s="403" t="s">
+      <c r="AD9" s="447"/>
+      <c r="AE9" s="447"/>
+      <c r="AF9" s="447"/>
+      <c r="AG9" s="447"/>
+      <c r="AH9" s="448" t="s">
         <v>127</v>
       </c>
-      <c r="AI9" s="403"/>
-    </row>
-    <row r="10" spans="1:36" ht="19.5" customHeight="1">
+      <c r="AI9" s="448"/>
+    </row>
+    <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="125">
         <v>1</v>
       </c>
-      <c r="B10" s="440" t="s">
+      <c r="B10" s="395" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="441"/>
-      <c r="D10" s="441"/>
-      <c r="E10" s="441"/>
-      <c r="F10" s="442"/>
-      <c r="G10" s="398"/>
-      <c r="H10" s="399"/>
-      <c r="I10" s="400"/>
-      <c r="J10" s="382"/>
-      <c r="K10" s="383"/>
-      <c r="L10" s="383"/>
-      <c r="M10" s="383"/>
-      <c r="N10" s="383"/>
-      <c r="O10" s="383"/>
-      <c r="P10" s="384"/>
-      <c r="Q10" s="396"/>
-      <c r="R10" s="397"/>
-      <c r="S10" s="396"/>
-      <c r="T10" s="443"/>
-      <c r="U10" s="397"/>
-      <c r="V10" s="404"/>
-      <c r="W10" s="405"/>
-      <c r="X10" s="405"/>
-      <c r="Y10" s="405"/>
-      <c r="Z10" s="405"/>
-      <c r="AA10" s="405"/>
-      <c r="AB10" s="406"/>
-      <c r="AC10" s="435"/>
-      <c r="AD10" s="447"/>
-      <c r="AE10" s="448"/>
-      <c r="AF10" s="448"/>
-      <c r="AG10" s="449"/>
-      <c r="AH10" s="438"/>
-      <c r="AI10" s="439"/>
-    </row>
-    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="C10" s="396"/>
+      <c r="D10" s="396"/>
+      <c r="E10" s="396"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="443"/>
+      <c r="H10" s="444"/>
+      <c r="I10" s="445"/>
+      <c r="J10" s="455"/>
+      <c r="K10" s="456"/>
+      <c r="L10" s="456"/>
+      <c r="M10" s="456"/>
+      <c r="N10" s="456"/>
+      <c r="O10" s="456"/>
+      <c r="P10" s="457"/>
+      <c r="Q10" s="404"/>
+      <c r="R10" s="406"/>
+      <c r="S10" s="404"/>
+      <c r="T10" s="405"/>
+      <c r="U10" s="406"/>
+      <c r="V10" s="449"/>
+      <c r="W10" s="450"/>
+      <c r="X10" s="450"/>
+      <c r="Y10" s="450"/>
+      <c r="Z10" s="450"/>
+      <c r="AA10" s="450"/>
+      <c r="AB10" s="451"/>
+      <c r="AC10" s="429"/>
+      <c r="AD10" s="373"/>
+      <c r="AE10" s="374"/>
+      <c r="AF10" s="374"/>
+      <c r="AG10" s="375"/>
+      <c r="AH10" s="393"/>
+      <c r="AI10" s="394"/>
+    </row>
+    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="126">
         <v>2</v>
       </c>
-      <c r="B11" s="370"/>
-      <c r="C11" s="371"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="371"/>
-      <c r="F11" s="372"/>
-      <c r="G11" s="393"/>
-      <c r="H11" s="394"/>
-      <c r="I11" s="395"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="371"/>
-      <c r="M11" s="371"/>
-      <c r="N11" s="371"/>
-      <c r="O11" s="371"/>
-      <c r="P11" s="372"/>
-      <c r="Q11" s="376"/>
-      <c r="R11" s="377"/>
-      <c r="S11" s="376"/>
-      <c r="T11" s="381"/>
-      <c r="U11" s="377"/>
-      <c r="V11" s="407"/>
-      <c r="W11" s="408"/>
-      <c r="X11" s="408"/>
-      <c r="Y11" s="408"/>
-      <c r="Z11" s="408"/>
-      <c r="AA11" s="408"/>
-      <c r="AB11" s="409"/>
-      <c r="AC11" s="436"/>
-      <c r="AD11" s="450"/>
-      <c r="AE11" s="451"/>
-      <c r="AF11" s="451"/>
-      <c r="AG11" s="452"/>
-      <c r="AH11" s="385"/>
-      <c r="AI11" s="386"/>
-    </row>
-    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="398"/>
+      <c r="C11" s="399"/>
+      <c r="D11" s="399"/>
+      <c r="E11" s="399"/>
+      <c r="F11" s="400"/>
+      <c r="G11" s="440"/>
+      <c r="H11" s="441"/>
+      <c r="I11" s="442"/>
+      <c r="J11" s="398"/>
+      <c r="K11" s="399"/>
+      <c r="L11" s="399"/>
+      <c r="M11" s="399"/>
+      <c r="N11" s="399"/>
+      <c r="O11" s="399"/>
+      <c r="P11" s="400"/>
+      <c r="Q11" s="407"/>
+      <c r="R11" s="409"/>
+      <c r="S11" s="407"/>
+      <c r="T11" s="408"/>
+      <c r="U11" s="409"/>
+      <c r="V11" s="390"/>
+      <c r="W11" s="391"/>
+      <c r="X11" s="391"/>
+      <c r="Y11" s="391"/>
+      <c r="Z11" s="391"/>
+      <c r="AA11" s="391"/>
+      <c r="AB11" s="392"/>
+      <c r="AC11" s="430"/>
+      <c r="AD11" s="376"/>
+      <c r="AE11" s="377"/>
+      <c r="AF11" s="377"/>
+      <c r="AG11" s="378"/>
+      <c r="AH11" s="388"/>
+      <c r="AI11" s="389"/>
+    </row>
+    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="126">
         <v>3</v>
       </c>
-      <c r="B12" s="370"/>
-      <c r="C12" s="371"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="371"/>
-      <c r="F12" s="372"/>
-      <c r="G12" s="393"/>
-      <c r="H12" s="394"/>
-      <c r="I12" s="395"/>
-      <c r="J12" s="370"/>
-      <c r="K12" s="371"/>
-      <c r="L12" s="371"/>
-      <c r="M12" s="371"/>
-      <c r="N12" s="371"/>
-      <c r="O12" s="371"/>
-      <c r="P12" s="372"/>
-      <c r="Q12" s="376"/>
-      <c r="R12" s="377"/>
-      <c r="S12" s="376"/>
-      <c r="T12" s="381"/>
-      <c r="U12" s="377"/>
-      <c r="V12" s="407"/>
-      <c r="W12" s="408"/>
-      <c r="X12" s="408"/>
-      <c r="Y12" s="408"/>
-      <c r="Z12" s="408"/>
-      <c r="AA12" s="408"/>
-      <c r="AB12" s="409"/>
-      <c r="AC12" s="436"/>
-      <c r="AD12" s="410"/>
-      <c r="AE12" s="411"/>
-      <c r="AF12" s="411"/>
-      <c r="AG12" s="412"/>
-      <c r="AH12" s="385"/>
-      <c r="AI12" s="386"/>
-    </row>
-    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="398"/>
+      <c r="C12" s="399"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="399"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="440"/>
+      <c r="H12" s="441"/>
+      <c r="I12" s="442"/>
+      <c r="J12" s="398"/>
+      <c r="K12" s="399"/>
+      <c r="L12" s="399"/>
+      <c r="M12" s="399"/>
+      <c r="N12" s="399"/>
+      <c r="O12" s="399"/>
+      <c r="P12" s="400"/>
+      <c r="Q12" s="407"/>
+      <c r="R12" s="409"/>
+      <c r="S12" s="407"/>
+      <c r="T12" s="408"/>
+      <c r="U12" s="409"/>
+      <c r="V12" s="390"/>
+      <c r="W12" s="391"/>
+      <c r="X12" s="391"/>
+      <c r="Y12" s="391"/>
+      <c r="Z12" s="391"/>
+      <c r="AA12" s="391"/>
+      <c r="AB12" s="392"/>
+      <c r="AC12" s="430"/>
+      <c r="AD12" s="379"/>
+      <c r="AE12" s="380"/>
+      <c r="AF12" s="380"/>
+      <c r="AG12" s="381"/>
+      <c r="AH12" s="388"/>
+      <c r="AI12" s="389"/>
+    </row>
+    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="126">
         <v>4</v>
       </c>
-      <c r="B13" s="370"/>
-      <c r="C13" s="371"/>
-      <c r="D13" s="371"/>
-      <c r="E13" s="371"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="393"/>
-      <c r="H13" s="394"/>
-      <c r="I13" s="395"/>
-      <c r="J13" s="370"/>
-      <c r="K13" s="371"/>
-      <c r="L13" s="371"/>
-      <c r="M13" s="371"/>
-      <c r="N13" s="371"/>
-      <c r="O13" s="371"/>
-      <c r="P13" s="372"/>
-      <c r="Q13" s="376"/>
-      <c r="R13" s="377"/>
-      <c r="S13" s="376"/>
-      <c r="T13" s="381"/>
-      <c r="U13" s="377"/>
-      <c r="V13" s="407"/>
-      <c r="W13" s="408"/>
-      <c r="X13" s="408"/>
-      <c r="Y13" s="408"/>
-      <c r="Z13" s="408"/>
-      <c r="AA13" s="408"/>
-      <c r="AB13" s="409"/>
-      <c r="AC13" s="436"/>
-      <c r="AD13" s="410"/>
-      <c r="AE13" s="411"/>
-      <c r="AF13" s="411"/>
-      <c r="AG13" s="412"/>
-      <c r="AH13" s="385"/>
-      <c r="AI13" s="386"/>
-    </row>
-    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="398"/>
+      <c r="C13" s="399"/>
+      <c r="D13" s="399"/>
+      <c r="E13" s="399"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="440"/>
+      <c r="H13" s="441"/>
+      <c r="I13" s="442"/>
+      <c r="J13" s="398"/>
+      <c r="K13" s="399"/>
+      <c r="L13" s="399"/>
+      <c r="M13" s="399"/>
+      <c r="N13" s="399"/>
+      <c r="O13" s="399"/>
+      <c r="P13" s="400"/>
+      <c r="Q13" s="407"/>
+      <c r="R13" s="409"/>
+      <c r="S13" s="407"/>
+      <c r="T13" s="408"/>
+      <c r="U13" s="409"/>
+      <c r="V13" s="390"/>
+      <c r="W13" s="391"/>
+      <c r="X13" s="391"/>
+      <c r="Y13" s="391"/>
+      <c r="Z13" s="391"/>
+      <c r="AA13" s="391"/>
+      <c r="AB13" s="392"/>
+      <c r="AC13" s="430"/>
+      <c r="AD13" s="379"/>
+      <c r="AE13" s="380"/>
+      <c r="AF13" s="380"/>
+      <c r="AG13" s="381"/>
+      <c r="AH13" s="388"/>
+      <c r="AI13" s="389"/>
+    </row>
+    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="126">
         <v>5</v>
       </c>
-      <c r="B14" s="427"/>
-      <c r="C14" s="428"/>
-      <c r="D14" s="428"/>
-      <c r="E14" s="428"/>
-      <c r="F14" s="429"/>
-      <c r="G14" s="370"/>
-      <c r="H14" s="371"/>
-      <c r="I14" s="372"/>
-      <c r="J14" s="370"/>
-      <c r="K14" s="371"/>
-      <c r="L14" s="371"/>
-      <c r="M14" s="371"/>
-      <c r="N14" s="371"/>
-      <c r="O14" s="371"/>
-      <c r="P14" s="372"/>
-      <c r="Q14" s="376"/>
-      <c r="R14" s="377"/>
-      <c r="S14" s="376"/>
-      <c r="T14" s="381"/>
-      <c r="U14" s="377"/>
-      <c r="V14" s="407"/>
-      <c r="W14" s="408"/>
-      <c r="X14" s="408"/>
-      <c r="Y14" s="408"/>
-      <c r="Z14" s="408"/>
-      <c r="AA14" s="408"/>
-      <c r="AB14" s="409"/>
-      <c r="AC14" s="436"/>
-      <c r="AD14" s="410"/>
-      <c r="AE14" s="411"/>
-      <c r="AF14" s="411"/>
-      <c r="AG14" s="412"/>
-      <c r="AH14" s="385"/>
-      <c r="AI14" s="386"/>
-    </row>
-    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="401"/>
+      <c r="C14" s="402"/>
+      <c r="D14" s="402"/>
+      <c r="E14" s="402"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="398"/>
+      <c r="H14" s="399"/>
+      <c r="I14" s="400"/>
+      <c r="J14" s="398"/>
+      <c r="K14" s="399"/>
+      <c r="L14" s="399"/>
+      <c r="M14" s="399"/>
+      <c r="N14" s="399"/>
+      <c r="O14" s="399"/>
+      <c r="P14" s="400"/>
+      <c r="Q14" s="407"/>
+      <c r="R14" s="409"/>
+      <c r="S14" s="407"/>
+      <c r="T14" s="408"/>
+      <c r="U14" s="409"/>
+      <c r="V14" s="390"/>
+      <c r="W14" s="391"/>
+      <c r="X14" s="391"/>
+      <c r="Y14" s="391"/>
+      <c r="Z14" s="391"/>
+      <c r="AA14" s="391"/>
+      <c r="AB14" s="392"/>
+      <c r="AC14" s="430"/>
+      <c r="AD14" s="379"/>
+      <c r="AE14" s="380"/>
+      <c r="AF14" s="380"/>
+      <c r="AG14" s="381"/>
+      <c r="AH14" s="388"/>
+      <c r="AI14" s="389"/>
+    </row>
+    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="126">
         <v>6</v>
       </c>
-      <c r="B15" s="427"/>
-      <c r="C15" s="428"/>
-      <c r="D15" s="428"/>
-      <c r="E15" s="428"/>
-      <c r="F15" s="429"/>
-      <c r="G15" s="370"/>
-      <c r="H15" s="371"/>
-      <c r="I15" s="372"/>
-      <c r="J15" s="370"/>
-      <c r="K15" s="371"/>
-      <c r="L15" s="371"/>
-      <c r="M15" s="371"/>
-      <c r="N15" s="371"/>
-      <c r="O15" s="371"/>
-      <c r="P15" s="372"/>
-      <c r="Q15" s="376"/>
-      <c r="R15" s="377"/>
-      <c r="S15" s="376"/>
-      <c r="T15" s="381"/>
-      <c r="U15" s="377"/>
-      <c r="V15" s="407"/>
-      <c r="W15" s="408"/>
-      <c r="X15" s="408"/>
-      <c r="Y15" s="408"/>
-      <c r="Z15" s="408"/>
-      <c r="AA15" s="408"/>
-      <c r="AB15" s="409"/>
-      <c r="AC15" s="436"/>
-      <c r="AD15" s="410"/>
-      <c r="AE15" s="411"/>
-      <c r="AF15" s="411"/>
-      <c r="AG15" s="412"/>
-      <c r="AH15" s="385"/>
-      <c r="AI15" s="386"/>
-    </row>
-    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="401"/>
+      <c r="C15" s="402"/>
+      <c r="D15" s="402"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="398"/>
+      <c r="H15" s="399"/>
+      <c r="I15" s="400"/>
+      <c r="J15" s="398"/>
+      <c r="K15" s="399"/>
+      <c r="L15" s="399"/>
+      <c r="M15" s="399"/>
+      <c r="N15" s="399"/>
+      <c r="O15" s="399"/>
+      <c r="P15" s="400"/>
+      <c r="Q15" s="407"/>
+      <c r="R15" s="409"/>
+      <c r="S15" s="407"/>
+      <c r="T15" s="408"/>
+      <c r="U15" s="409"/>
+      <c r="V15" s="390"/>
+      <c r="W15" s="391"/>
+      <c r="X15" s="391"/>
+      <c r="Y15" s="391"/>
+      <c r="Z15" s="391"/>
+      <c r="AA15" s="391"/>
+      <c r="AB15" s="392"/>
+      <c r="AC15" s="430"/>
+      <c r="AD15" s="379"/>
+      <c r="AE15" s="380"/>
+      <c r="AF15" s="380"/>
+      <c r="AG15" s="381"/>
+      <c r="AH15" s="388"/>
+      <c r="AI15" s="389"/>
+    </row>
+    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="127">
         <v>7</v>
       </c>
-      <c r="B16" s="427"/>
-      <c r="C16" s="428"/>
-      <c r="D16" s="428"/>
-      <c r="E16" s="428"/>
-      <c r="F16" s="429"/>
-      <c r="G16" s="370"/>
-      <c r="H16" s="371"/>
-      <c r="I16" s="372"/>
-      <c r="J16" s="370"/>
-      <c r="K16" s="371"/>
-      <c r="L16" s="371"/>
-      <c r="M16" s="371"/>
-      <c r="N16" s="371"/>
-      <c r="O16" s="371"/>
-      <c r="P16" s="372"/>
-      <c r="Q16" s="376"/>
-      <c r="R16" s="377"/>
-      <c r="S16" s="376"/>
-      <c r="T16" s="381"/>
-      <c r="U16" s="377"/>
-      <c r="V16" s="407"/>
-      <c r="W16" s="408"/>
-      <c r="X16" s="408"/>
-      <c r="Y16" s="408"/>
-      <c r="Z16" s="408"/>
-      <c r="AA16" s="408"/>
-      <c r="AB16" s="409"/>
-      <c r="AC16" s="436"/>
-      <c r="AD16" s="410"/>
-      <c r="AE16" s="411"/>
-      <c r="AF16" s="411"/>
-      <c r="AG16" s="412"/>
-      <c r="AH16" s="385"/>
-      <c r="AI16" s="386"/>
-    </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="401"/>
+      <c r="C16" s="402"/>
+      <c r="D16" s="402"/>
+      <c r="E16" s="402"/>
+      <c r="F16" s="403"/>
+      <c r="G16" s="398"/>
+      <c r="H16" s="399"/>
+      <c r="I16" s="400"/>
+      <c r="J16" s="398"/>
+      <c r="K16" s="399"/>
+      <c r="L16" s="399"/>
+      <c r="M16" s="399"/>
+      <c r="N16" s="399"/>
+      <c r="O16" s="399"/>
+      <c r="P16" s="400"/>
+      <c r="Q16" s="407"/>
+      <c r="R16" s="409"/>
+      <c r="S16" s="407"/>
+      <c r="T16" s="408"/>
+      <c r="U16" s="409"/>
+      <c r="V16" s="390"/>
+      <c r="W16" s="391"/>
+      <c r="X16" s="391"/>
+      <c r="Y16" s="391"/>
+      <c r="Z16" s="391"/>
+      <c r="AA16" s="391"/>
+      <c r="AB16" s="392"/>
+      <c r="AC16" s="430"/>
+      <c r="AD16" s="379"/>
+      <c r="AE16" s="380"/>
+      <c r="AF16" s="380"/>
+      <c r="AG16" s="381"/>
+      <c r="AH16" s="388"/>
+      <c r="AI16" s="389"/>
+    </row>
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="127">
         <v>8</v>
       </c>
-      <c r="B17" s="427"/>
-      <c r="C17" s="428"/>
-      <c r="D17" s="428"/>
-      <c r="E17" s="428"/>
-      <c r="F17" s="429"/>
-      <c r="G17" s="370"/>
-      <c r="H17" s="371"/>
-      <c r="I17" s="372"/>
-      <c r="J17" s="370"/>
-      <c r="K17" s="371"/>
-      <c r="L17" s="371"/>
-      <c r="M17" s="371"/>
-      <c r="N17" s="371"/>
-      <c r="O17" s="371"/>
-      <c r="P17" s="372"/>
-      <c r="Q17" s="376"/>
-      <c r="R17" s="377"/>
-      <c r="S17" s="376"/>
-      <c r="T17" s="381"/>
-      <c r="U17" s="377"/>
-      <c r="V17" s="407"/>
-      <c r="W17" s="408"/>
-      <c r="X17" s="408"/>
-      <c r="Y17" s="408"/>
-      <c r="Z17" s="408"/>
-      <c r="AA17" s="408"/>
-      <c r="AB17" s="409"/>
-      <c r="AC17" s="436"/>
-      <c r="AD17" s="410"/>
-      <c r="AE17" s="411"/>
-      <c r="AF17" s="411"/>
-      <c r="AG17" s="412"/>
-      <c r="AH17" s="385"/>
-      <c r="AI17" s="386"/>
-    </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="401"/>
+      <c r="C17" s="402"/>
+      <c r="D17" s="402"/>
+      <c r="E17" s="402"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="398"/>
+      <c r="H17" s="399"/>
+      <c r="I17" s="400"/>
+      <c r="J17" s="398"/>
+      <c r="K17" s="399"/>
+      <c r="L17" s="399"/>
+      <c r="M17" s="399"/>
+      <c r="N17" s="399"/>
+      <c r="O17" s="399"/>
+      <c r="P17" s="400"/>
+      <c r="Q17" s="407"/>
+      <c r="R17" s="409"/>
+      <c r="S17" s="407"/>
+      <c r="T17" s="408"/>
+      <c r="U17" s="409"/>
+      <c r="V17" s="390"/>
+      <c r="W17" s="391"/>
+      <c r="X17" s="391"/>
+      <c r="Y17" s="391"/>
+      <c r="Z17" s="391"/>
+      <c r="AA17" s="391"/>
+      <c r="AB17" s="392"/>
+      <c r="AC17" s="430"/>
+      <c r="AD17" s="379"/>
+      <c r="AE17" s="380"/>
+      <c r="AF17" s="380"/>
+      <c r="AG17" s="381"/>
+      <c r="AH17" s="388"/>
+      <c r="AI17" s="389"/>
+    </row>
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="128">
         <v>9</v>
       </c>
-      <c r="B18" s="430"/>
-      <c r="C18" s="431"/>
-      <c r="D18" s="431"/>
-      <c r="E18" s="431"/>
-      <c r="F18" s="432"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="425"/>
-      <c r="I18" s="426"/>
-      <c r="J18" s="424"/>
-      <c r="K18" s="425"/>
-      <c r="L18" s="425"/>
-      <c r="M18" s="425"/>
-      <c r="N18" s="425"/>
-      <c r="O18" s="425"/>
-      <c r="P18" s="426"/>
-      <c r="Q18" s="421"/>
-      <c r="R18" s="423"/>
-      <c r="S18" s="421"/>
-      <c r="T18" s="422"/>
-      <c r="U18" s="423"/>
-      <c r="V18" s="416"/>
-      <c r="W18" s="417"/>
-      <c r="X18" s="417"/>
-      <c r="Y18" s="417"/>
-      <c r="Z18" s="417"/>
-      <c r="AA18" s="417"/>
-      <c r="AB18" s="418"/>
-      <c r="AC18" s="437"/>
-      <c r="AD18" s="444"/>
-      <c r="AE18" s="445"/>
-      <c r="AF18" s="445"/>
-      <c r="AG18" s="446"/>
-      <c r="AH18" s="433"/>
-      <c r="AI18" s="434"/>
-    </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="419"/>
-      <c r="B19" s="420"/>
-      <c r="C19" s="420"/>
-      <c r="D19" s="420"/>
-      <c r="E19" s="420"/>
-      <c r="F19" s="420"/>
+      <c r="B18" s="424"/>
+      <c r="C18" s="425"/>
+      <c r="D18" s="425"/>
+      <c r="E18" s="425"/>
+      <c r="F18" s="426"/>
+      <c r="G18" s="421"/>
+      <c r="H18" s="422"/>
+      <c r="I18" s="423"/>
+      <c r="J18" s="421"/>
+      <c r="K18" s="422"/>
+      <c r="L18" s="422"/>
+      <c r="M18" s="422"/>
+      <c r="N18" s="422"/>
+      <c r="O18" s="422"/>
+      <c r="P18" s="423"/>
+      <c r="Q18" s="418"/>
+      <c r="R18" s="420"/>
+      <c r="S18" s="418"/>
+      <c r="T18" s="419"/>
+      <c r="U18" s="420"/>
+      <c r="V18" s="413"/>
+      <c r="W18" s="414"/>
+      <c r="X18" s="414"/>
+      <c r="Y18" s="414"/>
+      <c r="Z18" s="414"/>
+      <c r="AA18" s="414"/>
+      <c r="AB18" s="415"/>
+      <c r="AC18" s="431"/>
+      <c r="AD18" s="370"/>
+      <c r="AE18" s="371"/>
+      <c r="AF18" s="371"/>
+      <c r="AG18" s="372"/>
+      <c r="AH18" s="427"/>
+      <c r="AI18" s="428"/>
+    </row>
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="416"/>
+      <c r="B19" s="417"/>
+      <c r="C19" s="417"/>
+      <c r="D19" s="417"/>
+      <c r="E19" s="417"/>
+      <c r="F19" s="417"/>
       <c r="G19" s="129"/>
       <c r="H19" s="129"/>
       <c r="I19" s="129"/>
@@ -12426,23 +12159,23 @@
       <c r="AA19" s="129"/>
       <c r="AB19" s="129"/>
       <c r="AC19" s="130"/>
-      <c r="AD19" s="415"/>
-      <c r="AE19" s="415"/>
-      <c r="AF19" s="415"/>
-      <c r="AG19" s="415"/>
-      <c r="AH19" s="415"/>
+      <c r="AD19" s="412"/>
+      <c r="AE19" s="412"/>
+      <c r="AF19" s="412"/>
+      <c r="AG19" s="412"/>
+      <c r="AH19" s="412"/>
       <c r="AI19" s="65"/>
       <c r="AJ19" s="131"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="413" t="s">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="410" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="414"/>
-      <c r="C20" s="414"/>
-      <c r="D20" s="414"/>
-      <c r="E20" s="414"/>
-      <c r="F20" s="414"/>
+      <c r="B20" s="411"/>
+      <c r="C20" s="411"/>
+      <c r="D20" s="411"/>
+      <c r="E20" s="411"/>
+      <c r="F20" s="411"/>
       <c r="G20" s="132"/>
       <c r="H20" s="133"/>
       <c r="I20" s="133"/>
@@ -12481,7 +12214,7 @@
       <c r="AT20" s="60"/>
       <c r="AU20" s="60"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="136"/>
       <c r="B21" s="137"/>
       <c r="C21" s="138"/>
@@ -12527,7 +12260,7 @@
       <c r="AT21" s="60"/>
       <c r="AU21" s="60"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="136"/>
       <c r="B22" s="137"/>
       <c r="C22" s="137"/>
@@ -12573,7 +12306,7 @@
       <c r="AT22" s="60"/>
       <c r="AU22" s="60"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="136"/>
       <c r="B23" s="137"/>
       <c r="C23" s="137"/>
@@ -12619,7 +12352,7 @@
       <c r="AT23" s="60"/>
       <c r="AU23" s="60"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="136"/>
       <c r="B24" s="137"/>
       <c r="C24" s="137"/>
@@ -12665,7 +12398,7 @@
       <c r="AT24" s="60"/>
       <c r="AU24" s="60"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="136"/>
       <c r="B25" s="137"/>
       <c r="C25" s="137"/>
@@ -12711,7 +12444,7 @@
       <c r="AT25" s="60"/>
       <c r="AU25" s="60"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="136"/>
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
@@ -12757,7 +12490,7 @@
       <c r="AT26" s="60"/>
       <c r="AU26" s="60"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="136"/>
       <c r="B27" s="137"/>
       <c r="C27" s="137"/>
@@ -12803,7 +12536,7 @@
       <c r="AT27" s="60"/>
       <c r="AU27" s="60"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="136"/>
       <c r="B28" s="138"/>
       <c r="C28" s="138"/>
@@ -12849,7 +12582,7 @@
       <c r="AT28" s="60"/>
       <c r="AU28" s="60"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="136"/>
       <c r="B29" s="138"/>
       <c r="C29" s="137"/>
@@ -12895,7 +12628,7 @@
       <c r="AT29" s="60"/>
       <c r="AU29" s="60"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="144"/>
       <c r="B30" s="145"/>
       <c r="C30" s="146"/>
@@ -12941,7 +12674,7 @@
       <c r="AT30" s="60"/>
       <c r="AU30" s="60"/>
     </row>
-    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="149"/>
       <c r="B31" s="66"/>
       <c r="C31" s="131"/>
@@ -12989,6 +12722,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
     <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD11:AG11"/>
@@ -13013,86 +12826,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13109,12 +12842,11 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13124,167 +12856,167 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="305" t="s">
+    <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="308" t="str">
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="311" t="s">
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="296" t="str">
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="319"/>
+      <c r="S1" s="304" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="297"/>
-      <c r="U1" s="297"/>
-      <c r="V1" s="297"/>
-      <c r="W1" s="297"/>
-      <c r="X1" s="297"/>
-      <c r="Y1" s="297"/>
-      <c r="Z1" s="298"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="302" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="307"/>
-      <c r="AC1" s="323" t="str">
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="324"/>
-      <c r="AE1" s="324"/>
-      <c r="AF1" s="325"/>
-      <c r="AG1" s="367">
+      <c r="AD1" s="300"/>
+      <c r="AE1" s="300"/>
+      <c r="AF1" s="301"/>
+      <c r="AG1" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="368"/>
-      <c r="AI1" s="369"/>
-    </row>
-    <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="305" t="s">
+      <c r="AH1" s="327"/>
+      <c r="AI1" s="328"/>
+    </row>
+    <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="306"/>
-      <c r="C2" s="306"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="308" t="str">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="310"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="300"/>
-      <c r="U2" s="300"/>
-      <c r="V2" s="300"/>
-      <c r="W2" s="300"/>
-      <c r="X2" s="300"/>
-      <c r="Y2" s="300"/>
-      <c r="Z2" s="301"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="316"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="302" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="307"/>
-      <c r="AC2" s="323" t="str">
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="324"/>
-      <c r="AE2" s="324"/>
-      <c r="AF2" s="325"/>
-      <c r="AG2" s="367" t="str">
+      <c r="AD2" s="300"/>
+      <c r="AE2" s="300"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="368"/>
-      <c r="AI2" s="369"/>
-    </row>
-    <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="305" t="s">
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="328"/>
+    </row>
+    <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="308" t="str">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="314" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="310"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="302"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="303"/>
-      <c r="W3" s="303"/>
-      <c r="X3" s="303"/>
-      <c r="Y3" s="303"/>
-      <c r="Z3" s="304"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="307"/>
-      <c r="AC3" s="323" t="str">
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="316"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="312"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="324"/>
-      <c r="AE3" s="324"/>
-      <c r="AF3" s="325"/>
-      <c r="AG3" s="367" t="str">
+      <c r="AD3" s="300"/>
+      <c r="AE3" s="300"/>
+      <c r="AF3" s="301"/>
+      <c r="AG3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="368"/>
-      <c r="AI3" s="369"/>
-    </row>
-    <row r="4" spans="1:96" ht="12" customHeight="1"/>
-    <row r="5" spans="1:96" ht="15" customHeight="1">
+      <c r="AH3" s="327"/>
+      <c r="AI3" s="328"/>
+    </row>
+    <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>65</v>
       </c>
@@ -13292,7 +13024,7 @@
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:96" ht="15" customHeight="1">
+    <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -13323,64 +13055,64 @@
       <c r="AB6" s="62"/>
       <c r="AC6" s="62"/>
     </row>
-    <row r="7" spans="1:96" ht="15" customHeight="1">
+    <row r="7" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="478" t="s">
+      <c r="B7" s="469" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="479"/>
-      <c r="D7" s="479"/>
-      <c r="E7" s="479"/>
-      <c r="F7" s="480"/>
-      <c r="G7" s="478" t="s">
+      <c r="C7" s="470"/>
+      <c r="D7" s="470"/>
+      <c r="E7" s="470"/>
+      <c r="F7" s="471"/>
+      <c r="G7" s="469" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="479"/>
-      <c r="I7" s="479"/>
-      <c r="J7" s="479"/>
-      <c r="K7" s="480"/>
-      <c r="L7" s="478" t="s">
+      <c r="H7" s="470"/>
+      <c r="I7" s="470"/>
+      <c r="J7" s="470"/>
+      <c r="K7" s="471"/>
+      <c r="L7" s="469" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="479"/>
-      <c r="N7" s="479"/>
-      <c r="O7" s="479"/>
-      <c r="P7" s="480"/>
+      <c r="M7" s="470"/>
+      <c r="N7" s="470"/>
+      <c r="O7" s="470"/>
+      <c r="P7" s="471"/>
       <c r="Q7" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="463" t="s">
+      <c r="R7" s="479" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="463"/>
-      <c r="T7" s="463"/>
-      <c r="U7" s="463"/>
-      <c r="V7" s="468" t="s">
+      <c r="S7" s="479"/>
+      <c r="T7" s="479"/>
+      <c r="U7" s="479"/>
+      <c r="V7" s="481" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="469"/>
-      <c r="X7" s="468" t="s">
+      <c r="W7" s="482"/>
+      <c r="X7" s="481" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="469"/>
-      <c r="Z7" s="478" t="s">
+      <c r="Y7" s="482"/>
+      <c r="Z7" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="479"/>
-      <c r="AB7" s="480"/>
-      <c r="AC7" s="478" t="s">
+      <c r="AA7" s="470"/>
+      <c r="AB7" s="471"/>
+      <c r="AC7" s="469" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="479"/>
-      <c r="AE7" s="479"/>
-      <c r="AF7" s="479"/>
-      <c r="AG7" s="479"/>
-      <c r="AH7" s="479"/>
-      <c r="AI7" s="479"/>
-      <c r="AJ7" s="479"/>
-      <c r="AK7" s="480"/>
+      <c r="AD7" s="470"/>
+      <c r="AE7" s="470"/>
+      <c r="AF7" s="470"/>
+      <c r="AG7" s="470"/>
+      <c r="AH7" s="470"/>
+      <c r="AI7" s="470"/>
+      <c r="AJ7" s="470"/>
+      <c r="AK7" s="471"/>
       <c r="AL7" s="65"/>
       <c r="AM7" s="65"/>
       <c r="AN7" s="65"/>
@@ -13436,52 +13168,52 @@
       <c r="CL7" s="66"/>
       <c r="CM7" s="66"/>
     </row>
-    <row r="8" spans="1:96" ht="15" customHeight="1">
+    <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="67">
         <v>1</v>
       </c>
-      <c r="B8" s="465" t="s">
+      <c r="B8" s="461" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="466"/>
-      <c r="D8" s="466"/>
-      <c r="E8" s="466"/>
-      <c r="F8" s="467"/>
-      <c r="G8" s="481" t="s">
+      <c r="C8" s="462"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="463"/>
+      <c r="G8" s="472" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="482"/>
-      <c r="I8" s="482"/>
-      <c r="J8" s="482"/>
-      <c r="K8" s="482"/>
-      <c r="L8" s="465"/>
-      <c r="M8" s="466"/>
-      <c r="N8" s="466"/>
-      <c r="O8" s="466"/>
-      <c r="P8" s="467"/>
+      <c r="H8" s="473"/>
+      <c r="I8" s="473"/>
+      <c r="J8" s="473"/>
+      <c r="K8" s="473"/>
+      <c r="L8" s="461"/>
+      <c r="M8" s="462"/>
+      <c r="N8" s="462"/>
+      <c r="O8" s="462"/>
+      <c r="P8" s="463"/>
       <c r="Q8" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="R8" s="464"/>
-      <c r="S8" s="464"/>
-      <c r="T8" s="464"/>
-      <c r="U8" s="464"/>
-      <c r="V8" s="470"/>
-      <c r="W8" s="471"/>
-      <c r="X8" s="472"/>
-      <c r="Y8" s="473"/>
-      <c r="Z8" s="465"/>
-      <c r="AA8" s="466"/>
-      <c r="AB8" s="467"/>
-      <c r="AC8" s="465"/>
-      <c r="AD8" s="466"/>
-      <c r="AE8" s="466"/>
-      <c r="AF8" s="466"/>
-      <c r="AG8" s="466"/>
-      <c r="AH8" s="466"/>
-      <c r="AI8" s="466"/>
-      <c r="AJ8" s="466"/>
-      <c r="AK8" s="467"/>
+      <c r="R8" s="480"/>
+      <c r="S8" s="480"/>
+      <c r="T8" s="480"/>
+      <c r="U8" s="480"/>
+      <c r="V8" s="467"/>
+      <c r="W8" s="468"/>
+      <c r="X8" s="464"/>
+      <c r="Y8" s="466"/>
+      <c r="Z8" s="461"/>
+      <c r="AA8" s="462"/>
+      <c r="AB8" s="463"/>
+      <c r="AC8" s="461"/>
+      <c r="AD8" s="462"/>
+      <c r="AE8" s="462"/>
+      <c r="AF8" s="462"/>
+      <c r="AG8" s="462"/>
+      <c r="AH8" s="462"/>
+      <c r="AI8" s="462"/>
+      <c r="AJ8" s="462"/>
+      <c r="AK8" s="463"/>
       <c r="AL8" s="66"/>
       <c r="AM8" s="66"/>
       <c r="AN8" s="66"/>
@@ -13536,58 +13268,58 @@
       <c r="CL8" s="66"/>
       <c r="CM8" s="66"/>
     </row>
-    <row r="9" spans="1:96" ht="15" customHeight="1">
+    <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67">
         <v>2</v>
       </c>
-      <c r="B9" s="465" t="s">
+      <c r="B9" s="461" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="466"/>
-      <c r="D9" s="466"/>
-      <c r="E9" s="466"/>
-      <c r="F9" s="467"/>
-      <c r="G9" s="474" t="s">
+      <c r="C9" s="462"/>
+      <c r="D9" s="462"/>
+      <c r="E9" s="462"/>
+      <c r="F9" s="463"/>
+      <c r="G9" s="458" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="475"/>
-      <c r="I9" s="475"/>
-      <c r="J9" s="475"/>
-      <c r="K9" s="476"/>
-      <c r="L9" s="465" t="s">
+      <c r="H9" s="459"/>
+      <c r="I9" s="459"/>
+      <c r="J9" s="459"/>
+      <c r="K9" s="460"/>
+      <c r="L9" s="461" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="466"/>
-      <c r="N9" s="466"/>
-      <c r="O9" s="466"/>
-      <c r="P9" s="467"/>
+      <c r="M9" s="462"/>
+      <c r="N9" s="462"/>
+      <c r="O9" s="462"/>
+      <c r="P9" s="463"/>
       <c r="Q9" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="R9" s="465" t="s">
+      <c r="R9" s="461" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="466"/>
-      <c r="T9" s="466"/>
-      <c r="U9" s="467"/>
-      <c r="V9" s="470">
+      <c r="S9" s="462"/>
+      <c r="T9" s="462"/>
+      <c r="U9" s="463"/>
+      <c r="V9" s="467">
         <v>1</v>
       </c>
-      <c r="W9" s="471"/>
-      <c r="X9" s="472"/>
-      <c r="Y9" s="473"/>
-      <c r="Z9" s="465"/>
-      <c r="AA9" s="466"/>
-      <c r="AB9" s="467"/>
-      <c r="AC9" s="465"/>
-      <c r="AD9" s="466"/>
-      <c r="AE9" s="466"/>
-      <c r="AF9" s="466"/>
-      <c r="AG9" s="466"/>
-      <c r="AH9" s="466"/>
-      <c r="AI9" s="466"/>
-      <c r="AJ9" s="466"/>
-      <c r="AK9" s="467"/>
+      <c r="W9" s="468"/>
+      <c r="X9" s="464"/>
+      <c r="Y9" s="466"/>
+      <c r="Z9" s="461"/>
+      <c r="AA9" s="462"/>
+      <c r="AB9" s="463"/>
+      <c r="AC9" s="461"/>
+      <c r="AD9" s="462"/>
+      <c r="AE9" s="462"/>
+      <c r="AF9" s="462"/>
+      <c r="AG9" s="462"/>
+      <c r="AH9" s="462"/>
+      <c r="AI9" s="462"/>
+      <c r="AJ9" s="462"/>
+      <c r="AK9" s="463"/>
       <c r="AL9" s="66"/>
       <c r="AM9" s="66"/>
       <c r="AN9" s="66"/>
@@ -13642,44 +13374,44 @@
       <c r="CL9" s="66"/>
       <c r="CM9" s="66"/>
     </row>
-    <row r="10" spans="1:96" ht="15" customHeight="1">
+    <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67">
         <v>3</v>
       </c>
-      <c r="B10" s="465" t="s">
+      <c r="B10" s="461" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="466"/>
-      <c r="D10" s="466"/>
-      <c r="E10" s="466"/>
-      <c r="F10" s="467"/>
-      <c r="G10" s="474" t="s">
+      <c r="C10" s="462"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="462"/>
+      <c r="F10" s="463"/>
+      <c r="G10" s="458" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="475"/>
-      <c r="I10" s="475"/>
-      <c r="J10" s="475"/>
-      <c r="K10" s="476"/>
-      <c r="L10" s="465" t="s">
+      <c r="H10" s="459"/>
+      <c r="I10" s="459"/>
+      <c r="J10" s="459"/>
+      <c r="K10" s="460"/>
+      <c r="L10" s="461" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="466"/>
-      <c r="N10" s="466"/>
-      <c r="O10" s="466"/>
-      <c r="P10" s="467"/>
+      <c r="M10" s="462"/>
+      <c r="N10" s="462"/>
+      <c r="O10" s="462"/>
+      <c r="P10" s="463"/>
       <c r="Q10" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="465" t="s">
+      <c r="R10" s="461" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="466"/>
-      <c r="T10" s="466"/>
-      <c r="U10" s="467"/>
-      <c r="V10" s="470">
+      <c r="S10" s="462"/>
+      <c r="T10" s="462"/>
+      <c r="U10" s="463"/>
+      <c r="V10" s="467">
         <v>1</v>
       </c>
-      <c r="W10" s="471"/>
+      <c r="W10" s="468"/>
       <c r="X10" s="69"/>
       <c r="Y10" s="70"/>
       <c r="Z10" s="71"/>
@@ -13748,30 +13480,30 @@
       <c r="CL10" s="66"/>
       <c r="CM10" s="66"/>
     </row>
-    <row r="11" spans="1:96" ht="15" customHeight="1">
+    <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="67"/>
-      <c r="B11" s="465"/>
-      <c r="C11" s="466"/>
-      <c r="D11" s="466"/>
-      <c r="E11" s="466"/>
-      <c r="F11" s="467"/>
-      <c r="G11" s="472"/>
-      <c r="H11" s="477"/>
-      <c r="I11" s="477"/>
-      <c r="J11" s="477"/>
-      <c r="K11" s="473"/>
-      <c r="L11" s="472"/>
-      <c r="M11" s="477"/>
-      <c r="N11" s="477"/>
-      <c r="O11" s="477"/>
-      <c r="P11" s="473"/>
+      <c r="B11" s="461"/>
+      <c r="C11" s="462"/>
+      <c r="D11" s="462"/>
+      <c r="E11" s="462"/>
+      <c r="F11" s="463"/>
+      <c r="G11" s="464"/>
+      <c r="H11" s="465"/>
+      <c r="I11" s="465"/>
+      <c r="J11" s="465"/>
+      <c r="K11" s="466"/>
+      <c r="L11" s="464"/>
+      <c r="M11" s="465"/>
+      <c r="N11" s="465"/>
+      <c r="O11" s="465"/>
+      <c r="P11" s="466"/>
       <c r="Q11" s="68"/>
-      <c r="R11" s="465"/>
-      <c r="S11" s="466"/>
-      <c r="T11" s="466"/>
-      <c r="U11" s="467"/>
-      <c r="V11" s="470"/>
-      <c r="W11" s="471"/>
+      <c r="R11" s="461"/>
+      <c r="S11" s="462"/>
+      <c r="T11" s="462"/>
+      <c r="U11" s="463"/>
+      <c r="V11" s="467"/>
+      <c r="W11" s="468"/>
       <c r="X11" s="69"/>
       <c r="Y11" s="70"/>
       <c r="Z11" s="71"/>
@@ -13840,7 +13572,7 @@
       <c r="CL11" s="66"/>
       <c r="CM11" s="66"/>
     </row>
-    <row r="12" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
@@ -13891,7 +13623,7 @@
       <c r="CQ12" s="81"/>
       <c r="CR12" s="81"/>
     </row>
-    <row r="13" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="81"/>
       <c r="B13" s="81"/>
       <c r="C13" s="81"/>
@@ -13942,7 +13674,7 @@
       <c r="CQ13" s="81"/>
       <c r="CR13" s="81"/>
     </row>
-    <row r="14" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="81"/>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
@@ -13993,7 +13725,7 @@
       <c r="CQ14" s="81"/>
       <c r="CR14" s="81"/>
     </row>
-    <row r="15" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="85"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -14044,50 +13776,50 @@
       <c r="CQ15" s="81"/>
       <c r="CR15" s="81"/>
     </row>
-    <row r="16" spans="1:96" s="87" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="458" t="s">
+    <row r="16" spans="1:96" s="87" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="474" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="459"/>
-      <c r="C16" s="459"/>
-      <c r="D16" s="459"/>
-      <c r="E16" s="459"/>
-      <c r="F16" s="459"/>
-      <c r="G16" s="459"/>
-      <c r="H16" s="459"/>
-      <c r="I16" s="459"/>
-      <c r="J16" s="459"/>
-      <c r="K16" s="459"/>
-      <c r="L16" s="459"/>
-      <c r="M16" s="459"/>
-      <c r="N16" s="459"/>
-      <c r="O16" s="459"/>
-      <c r="P16" s="459"/>
-      <c r="Q16" s="459"/>
-      <c r="R16" s="459"/>
-      <c r="S16" s="459"/>
-      <c r="T16" s="459"/>
-      <c r="U16" s="459"/>
-      <c r="V16" s="459"/>
-      <c r="W16" s="459"/>
-      <c r="X16" s="459"/>
-      <c r="Y16" s="460" t="s">
+      <c r="B16" s="475"/>
+      <c r="C16" s="475"/>
+      <c r="D16" s="475"/>
+      <c r="E16" s="475"/>
+      <c r="F16" s="475"/>
+      <c r="G16" s="475"/>
+      <c r="H16" s="475"/>
+      <c r="I16" s="475"/>
+      <c r="J16" s="475"/>
+      <c r="K16" s="475"/>
+      <c r="L16" s="475"/>
+      <c r="M16" s="475"/>
+      <c r="N16" s="475"/>
+      <c r="O16" s="475"/>
+      <c r="P16" s="475"/>
+      <c r="Q16" s="475"/>
+      <c r="R16" s="475"/>
+      <c r="S16" s="475"/>
+      <c r="T16" s="475"/>
+      <c r="U16" s="475"/>
+      <c r="V16" s="475"/>
+      <c r="W16" s="475"/>
+      <c r="X16" s="475"/>
+      <c r="Y16" s="476" t="s">
         <v>123</v>
       </c>
-      <c r="Z16" s="461"/>
-      <c r="AA16" s="461"/>
-      <c r="AB16" s="461"/>
-      <c r="AC16" s="461"/>
-      <c r="AD16" s="461"/>
-      <c r="AE16" s="461"/>
-      <c r="AF16" s="461"/>
-      <c r="AG16" s="461"/>
-      <c r="AH16" s="461"/>
-      <c r="AI16" s="461"/>
-      <c r="AJ16" s="461"/>
-      <c r="AK16" s="462"/>
-    </row>
-    <row r="17" spans="1:96" ht="15" customHeight="1">
+      <c r="Z16" s="477"/>
+      <c r="AA16" s="477"/>
+      <c r="AB16" s="477"/>
+      <c r="AC16" s="477"/>
+      <c r="AD16" s="477"/>
+      <c r="AE16" s="477"/>
+      <c r="AF16" s="477"/>
+      <c r="AG16" s="477"/>
+      <c r="AH16" s="477"/>
+      <c r="AI16" s="477"/>
+      <c r="AJ16" s="477"/>
+      <c r="AK16" s="478"/>
+    </row>
+    <row r="17" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
       <c r="C17" s="89"/>
@@ -14141,7 +13873,7 @@
       <c r="CQ17" s="66"/>
       <c r="CR17" s="66"/>
     </row>
-    <row r="18" spans="1:96" ht="15" customHeight="1">
+    <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -14180,7 +13912,7 @@
       <c r="AJ18" s="99"/>
       <c r="AK18" s="100"/>
     </row>
-    <row r="19" spans="1:96" ht="15" customHeight="1">
+    <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="95"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -14219,7 +13951,7 @@
       <c r="AJ19" s="99"/>
       <c r="AK19" s="100"/>
     </row>
-    <row r="20" spans="1:96" ht="15" customHeight="1">
+    <row r="20" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="95"/>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
@@ -14258,7 +13990,7 @@
       <c r="AJ20" s="99"/>
       <c r="AK20" s="100"/>
     </row>
-    <row r="21" spans="1:96" ht="15" customHeight="1">
+    <row r="21" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="95"/>
       <c r="B21" s="96"/>
       <c r="C21" s="96"/>
@@ -14297,7 +14029,7 @@
       <c r="AJ21" s="99"/>
       <c r="AK21" s="100"/>
     </row>
-    <row r="22" spans="1:96" ht="15" customHeight="1">
+    <row r="22" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="95"/>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
@@ -14336,7 +14068,7 @@
       <c r="AJ22" s="99"/>
       <c r="AK22" s="100"/>
     </row>
-    <row r="23" spans="1:96" ht="15" customHeight="1">
+    <row r="23" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="95"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
@@ -14375,7 +14107,7 @@
       <c r="AJ23" s="99"/>
       <c r="AK23" s="100"/>
     </row>
-    <row r="24" spans="1:96" ht="15" customHeight="1">
+    <row r="24" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="95"/>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
@@ -14414,7 +14146,7 @@
       <c r="AJ24" s="99"/>
       <c r="AK24" s="100"/>
     </row>
-    <row r="25" spans="1:96" ht="15" customHeight="1">
+    <row r="25" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="95"/>
       <c r="B25" s="96"/>
       <c r="C25" s="96"/>
@@ -14453,7 +14185,7 @@
       <c r="AJ25" s="99"/>
       <c r="AK25" s="100"/>
     </row>
-    <row r="26" spans="1:96" ht="15" customHeight="1">
+    <row r="26" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
@@ -14492,7 +14224,7 @@
       <c r="AJ26" s="99"/>
       <c r="AK26" s="100"/>
     </row>
-    <row r="27" spans="1:96" ht="15" customHeight="1">
+    <row r="27" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
@@ -14531,7 +14263,7 @@
       <c r="AJ27" s="99"/>
       <c r="AK27" s="100"/>
     </row>
-    <row r="28" spans="1:96" ht="15" customHeight="1">
+    <row r="28" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="96"/>
@@ -14570,7 +14302,7 @@
       <c r="AJ28" s="99"/>
       <c r="AK28" s="100"/>
     </row>
-    <row r="29" spans="1:96" ht="15" customHeight="1">
+    <row r="29" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="95"/>
       <c r="B29" s="96"/>
       <c r="C29" s="96"/>
@@ -14609,7 +14341,7 @@
       <c r="AJ29" s="99"/>
       <c r="AK29" s="100"/>
     </row>
-    <row r="30" spans="1:96" ht="15" customHeight="1">
+    <row r="30" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -14648,7 +14380,7 @@
       <c r="AJ30" s="99"/>
       <c r="AK30" s="100"/>
     </row>
-    <row r="31" spans="1:96" ht="15" customHeight="1">
+    <row r="31" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="95"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -14687,7 +14419,7 @@
       <c r="AJ31" s="99"/>
       <c r="AK31" s="100"/>
     </row>
-    <row r="32" spans="1:96" ht="15" customHeight="1">
+    <row r="32" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="101"/>
       <c r="B32" s="102"/>
       <c r="C32" s="102"/>
@@ -14726,49 +14458,12 @@
       <c r="AJ32" s="106"/>
       <c r="AK32" s="107"/>
     </row>
-    <row r="33" spans="4:24" ht="15" customHeight="1">
+    <row r="33" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="108"/>
       <c r="X33" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A16:X16"/>
     <mergeCell ref="Y16:AK16"/>
     <mergeCell ref="R7:U7"/>
@@ -14785,6 +14480,43 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="AC7:AK7"/>
     <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="2">
@@ -14805,7 +14537,6 @@
     <brk id="14" max="37" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14818,110 +14549,110 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="50"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="50"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="52" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="50"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="50"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="50"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="50"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="50"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="52" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="50"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="50"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="52" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="50"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="52" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="50"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="50"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="50"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="52" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="50"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>64</v>
       </c>
